--- a/Results/summary_deLDS_5_fold_eva.xlsx
+++ b/Results/summary_deLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC3003-1AEC-4D6F-B84A-8FB5F628616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A40B88-D0CD-4B48-97DC-8654D4A7F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4275" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -5207,12 +5207,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -5220,6 +5214,12 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5230,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D036BE2-578A-434B-9121-F99339399A5A}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9683,6 +9683,4486 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>85.395048592308086</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AC1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
+  <dimension ref="A1:AL49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="2"/>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="2">
+        <v>16</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>61.393437659495319</v>
+      </c>
+      <c r="F4">
+        <v>6.6570862810738358</v>
+      </c>
+      <c r="G4">
+        <v>0.6139343765949532</v>
+      </c>
+      <c r="H4">
+        <v>0.51018167705773076</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>76.065882922862656</v>
+      </c>
+      <c r="L4">
+        <v>1.646622420657315</v>
+      </c>
+      <c r="M4">
+        <v>0.7606588292286266</v>
+      </c>
+      <c r="N4">
+        <v>0.71291037803002133</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>79.283298298428193</v>
+      </c>
+      <c r="R4">
+        <v>1.0728831404731629</v>
+      </c>
+      <c r="S4">
+        <v>0.79283298298428195</v>
+      </c>
+      <c r="T4">
+        <v>0.76864244454946806</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>82.566371681415916</v>
+      </c>
+      <c r="X4">
+        <v>1.243791276403923</v>
+      </c>
+      <c r="Y4">
+        <v>0.82566371681415929</v>
+      </c>
+      <c r="Z4">
+        <v>0.79013605219293659</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>81.783925466483282</v>
+      </c>
+      <c r="AD4">
+        <v>2.5506618475580809</v>
+      </c>
+      <c r="AE4">
+        <v>0.81783925466483276</v>
+      </c>
+      <c r="AF4">
+        <v>0.77637849700266881</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>70.817394614140269</v>
+      </c>
+      <c r="AJ4">
+        <v>2.3337609318950241</v>
+      </c>
+      <c r="AK4">
+        <v>0.70817394614140272</v>
+      </c>
+      <c r="AL4">
+        <v>0.66582138213710307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>62.54984904713708</v>
+      </c>
+      <c r="F5">
+        <v>3.286276615742842</v>
+      </c>
+      <c r="G5">
+        <v>0.62549849047137085</v>
+      </c>
+      <c r="H5">
+        <v>0.52930029680839108</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>72.864125122189634</v>
+      </c>
+      <c r="L5">
+        <v>1.2783948752495069</v>
+      </c>
+      <c r="M5">
+        <v>0.72864125122189638</v>
+      </c>
+      <c r="N5">
+        <v>0.67977984437766448</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>67.138210538153444</v>
+      </c>
+      <c r="R5">
+        <v>2.488626776202056</v>
+      </c>
+      <c r="S5">
+        <v>0.67138210538153442</v>
+      </c>
+      <c r="T5">
+        <v>0.60844832342014876</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>67.931037465722028</v>
+      </c>
+      <c r="X5">
+        <v>3.620497537849706</v>
+      </c>
+      <c r="Y5">
+        <v>0.67931037465722022</v>
+      </c>
+      <c r="Z5">
+        <v>0.63329206934665438</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>92.361093089040565</v>
+      </c>
+      <c r="AD5">
+        <v>0.20778750671036181</v>
+      </c>
+      <c r="AE5">
+        <v>0.92361093089040569</v>
+      </c>
+      <c r="AF5">
+        <v>0.91861260188122917</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5">
+        <v>74.778761061946895</v>
+      </c>
+      <c r="AJ5">
+        <v>1.5370912751166961</v>
+      </c>
+      <c r="AK5">
+        <v>0.74778761061946908</v>
+      </c>
+      <c r="AL5">
+        <v>0.68394458778148859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>70.129326378255868</v>
+      </c>
+      <c r="F6">
+        <v>3.2108134327818769</v>
+      </c>
+      <c r="G6">
+        <v>0.70129326378255874</v>
+      </c>
+      <c r="H6">
+        <v>0.6463279925148917</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>80.804418723345364</v>
+      </c>
+      <c r="L6">
+        <v>0.72887563494268715</v>
+      </c>
+      <c r="M6">
+        <v>0.80804418723345361</v>
+      </c>
+      <c r="N6">
+        <v>0.79159940949020213</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>75.844514225901605</v>
+      </c>
+      <c r="R6">
+        <v>1.824167566886262</v>
+      </c>
+      <c r="S6">
+        <v>0.75844514225901605</v>
+      </c>
+      <c r="T6">
+        <v>0.73174118364332386</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>81.832368792117578</v>
+      </c>
+      <c r="X6">
+        <v>0.86740495970420428</v>
+      </c>
+      <c r="Y6">
+        <v>0.81832368792117582</v>
+      </c>
+      <c r="Z6">
+        <v>0.79021659519860177</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>75.284301767316322</v>
+      </c>
+      <c r="AD6">
+        <v>1.3997590312436541</v>
+      </c>
+      <c r="AE6">
+        <v>0.7528430176731632</v>
+      </c>
+      <c r="AF6">
+        <v>0.72390064774164165</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>67.36944091211862</v>
+      </c>
+      <c r="AJ6">
+        <v>1.1461657775749661</v>
+      </c>
+      <c r="AK6">
+        <v>0.67369440912118617</v>
+      </c>
+      <c r="AL6">
+        <v>0.65378920534341312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>55.826607496604638</v>
+      </c>
+      <c r="F7">
+        <v>2.857943058497411</v>
+      </c>
+      <c r="G7">
+        <v>0.55826607496604641</v>
+      </c>
+      <c r="H7">
+        <v>0.46419153925948481</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>59.019887715291659</v>
+      </c>
+      <c r="L7">
+        <v>8.1112371941652555</v>
+      </c>
+      <c r="M7">
+        <v>0.59019887715291652</v>
+      </c>
+      <c r="N7">
+        <v>0.48150431387761877</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>62.387217882507628</v>
+      </c>
+      <c r="R7">
+        <v>2.2910092247053711</v>
+      </c>
+      <c r="S7">
+        <v>0.62387217882507628</v>
+      </c>
+      <c r="T7">
+        <v>0.5573546121525017</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>76.121073711710309</v>
+      </c>
+      <c r="X7">
+        <v>3.121314323079476</v>
+      </c>
+      <c r="Y7">
+        <v>0.76121073711710308</v>
+      </c>
+      <c r="Z7">
+        <v>0.72418237692139653</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>83.900898796702393</v>
+      </c>
+      <c r="AD7">
+        <v>0.44379116843905042</v>
+      </c>
+      <c r="AE7">
+        <v>0.83900898796702383</v>
+      </c>
+      <c r="AF7">
+        <v>0.83364570521675996</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>90.035640446716656</v>
+      </c>
+      <c r="AJ7">
+        <v>0.95762828953430312</v>
+      </c>
+      <c r="AK7">
+        <v>0.90035640446716658</v>
+      </c>
+      <c r="AL7">
+        <v>0.879545014720993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>71.48790214448222</v>
+      </c>
+      <c r="F8">
+        <v>1.4503351479561459</v>
+      </c>
+      <c r="G8">
+        <v>0.71487902144482218</v>
+      </c>
+      <c r="H8">
+        <v>0.66867348592285447</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>82.123893805309734</v>
+      </c>
+      <c r="L8">
+        <v>1.701707737602945</v>
+      </c>
+      <c r="M8">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="N8">
+        <v>0.78509616625038303</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>86.342182890855455</v>
+      </c>
+      <c r="R8">
+        <v>0.35878811290998558</v>
+      </c>
+      <c r="S8">
+        <v>0.86342182890855457</v>
+      </c>
+      <c r="T8">
+        <v>0.84201631665850485</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>83.250201126307317</v>
+      </c>
+      <c r="X8">
+        <v>0.82322340059921562</v>
+      </c>
+      <c r="Y8">
+        <v>0.83250201126307322</v>
+      </c>
+      <c r="Z8">
+        <v>0.81409902593551065</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>85.641311776053428</v>
+      </c>
+      <c r="AD8">
+        <v>0.61216149011964516</v>
+      </c>
+      <c r="AE8">
+        <v>0.8564131177605343</v>
+      </c>
+      <c r="AF8">
+        <v>0.83293316394105454</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>95.575221238938042</v>
+      </c>
+      <c r="AJ8">
+        <v>0.2180104830674926</v>
+      </c>
+      <c r="AK8">
+        <v>0.95575221238938057</v>
+      </c>
+      <c r="AL8">
+        <v>0.95538835664884447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>77.004472357027311</v>
+      </c>
+      <c r="F9">
+        <v>0.86188851859518167</v>
+      </c>
+      <c r="G9">
+        <v>0.77004472357027309</v>
+      </c>
+      <c r="H9">
+        <v>0.74674509333188444</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>85.811209439528028</v>
+      </c>
+      <c r="L9">
+        <v>0.72225338422005803</v>
+      </c>
+      <c r="M9">
+        <v>0.85811209439528024</v>
+      </c>
+      <c r="N9">
+        <v>0.82709310177604212</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>91.502781165927047</v>
+      </c>
+      <c r="R9">
+        <v>0.25213161793886529</v>
+      </c>
+      <c r="S9">
+        <v>0.91502781165927038</v>
+      </c>
+      <c r="T9">
+        <v>0.9073906724394305</v>
+      </c>
+      <c r="V9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>87.869272225538282</v>
+      </c>
+      <c r="X9">
+        <v>0.3309993185638157</v>
+      </c>
+      <c r="Y9">
+        <v>0.87869272225538286</v>
+      </c>
+      <c r="Z9">
+        <v>0.87375496019039967</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>88.060709867732413</v>
+      </c>
+      <c r="AD9">
+        <v>0.25809647867420138</v>
+      </c>
+      <c r="AE9">
+        <v>0.88060709867732423</v>
+      </c>
+      <c r="AF9">
+        <v>0.88030441457174413</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>82.209707696433355</v>
+      </c>
+      <c r="AJ9">
+        <v>1.087364868756681</v>
+      </c>
+      <c r="AK9">
+        <v>0.82209707696433365</v>
+      </c>
+      <c r="AL9">
+        <v>0.78811225131026941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>88.131644737411222</v>
+      </c>
+      <c r="F10">
+        <v>0.57052899376748445</v>
+      </c>
+      <c r="G10">
+        <v>0.88131644737411219</v>
+      </c>
+      <c r="H10">
+        <v>0.8801325088841041</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>60.506405764755748</v>
+      </c>
+      <c r="L10">
+        <v>3.309979934533958</v>
+      </c>
+      <c r="M10">
+        <v>0.60506405764755755</v>
+      </c>
+      <c r="N10">
+        <v>0.51936415761067167</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>83.716814159292042</v>
+      </c>
+      <c r="R10">
+        <v>0.7148725522833993</v>
+      </c>
+      <c r="S10">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T10">
+        <v>0.82192751182619062</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>87.138643067846601</v>
+      </c>
+      <c r="X10">
+        <v>0.45457013525297019</v>
+      </c>
+      <c r="Y10">
+        <v>0.87138643067846611</v>
+      </c>
+      <c r="Z10">
+        <v>0.86413661907920236</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10">
+        <v>70.979679755015184</v>
+      </c>
+      <c r="AD10">
+        <v>2.0777172400378832</v>
+      </c>
+      <c r="AE10">
+        <v>0.70979679755015179</v>
+      </c>
+      <c r="AF10">
+        <v>0.66976773268793433</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10">
+        <v>74.367165805932572</v>
+      </c>
+      <c r="AJ10">
+        <v>1.80142142728467</v>
+      </c>
+      <c r="AK10">
+        <v>0.74367165805932578</v>
+      </c>
+      <c r="AL10">
+        <v>0.71637610734373147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>83.465427901625446</v>
+      </c>
+      <c r="F11">
+        <v>1.396384413127481</v>
+      </c>
+      <c r="G11">
+        <v>0.83465427901625444</v>
+      </c>
+      <c r="H11">
+        <v>0.80677713260831363</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>89.800517305513011</v>
+      </c>
+      <c r="L11">
+        <v>0.86592875134660652</v>
+      </c>
+      <c r="M11">
+        <v>0.89800517305513028</v>
+      </c>
+      <c r="N11">
+        <v>0.87941385583690013</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>87.928096263808513</v>
+      </c>
+      <c r="R11">
+        <v>0.67600848035328998</v>
+      </c>
+      <c r="S11">
+        <v>0.87928096263808508</v>
+      </c>
+      <c r="T11">
+        <v>0.87155025839193656</v>
+      </c>
+      <c r="V11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>82.895959307606475</v>
+      </c>
+      <c r="X11">
+        <v>1.176300806175439</v>
+      </c>
+      <c r="Y11">
+        <v>0.8289595930760647</v>
+      </c>
+      <c r="Z11">
+        <v>0.80431693328846554</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11">
+        <v>94.837758112094392</v>
+      </c>
+      <c r="AD11">
+        <v>0.18993338308580929</v>
+      </c>
+      <c r="AE11">
+        <v>0.94837758112094384</v>
+      </c>
+      <c r="AF11">
+        <v>0.94760913088411591</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="AJ11">
+        <v>5.5002497690585357E-2</v>
+      </c>
+      <c r="AK11">
+        <v>0.9746312684365781</v>
+      </c>
+      <c r="AL11">
+        <v>0.97430694569694365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="F12">
+        <v>1.1946696159771819</v>
+      </c>
+      <c r="G12">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="H12">
+        <v>0.90829273614555406</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>88.43657817109144</v>
+      </c>
+      <c r="L12">
+        <v>0.65181606207748422</v>
+      </c>
+      <c r="M12">
+        <v>0.88436578171091451</v>
+      </c>
+      <c r="N12">
+        <v>0.8705549678615544</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="R12">
+        <v>0.95857581632650124</v>
+      </c>
+      <c r="S12">
+        <v>0.88466076696165197</v>
+      </c>
+      <c r="T12">
+        <v>0.86767393570980256</v>
+      </c>
+      <c r="V12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="X12">
+        <v>0.74947642435799211</v>
+      </c>
+      <c r="Y12">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="Z12">
+        <v>0.90829273614555406</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12">
+        <v>83.46378428879143</v>
+      </c>
+      <c r="AD12">
+        <v>0.627176602161578</v>
+      </c>
+      <c r="AE12">
+        <v>0.83463784288791421</v>
+      </c>
+      <c r="AF12">
+        <v>0.78404108744757495</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12">
+        <v>92.774937499459341</v>
+      </c>
+      <c r="AJ12">
+        <v>0.3110775219143409</v>
+      </c>
+      <c r="AK12">
+        <v>0.92774937499459342</v>
+      </c>
+      <c r="AL12">
+        <v>0.90476547447161937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>88.585022361785136</v>
+      </c>
+      <c r="F13">
+        <v>0.69478079962490802</v>
+      </c>
+      <c r="G13">
+        <v>0.88585022361785126</v>
+      </c>
+      <c r="H13">
+        <v>0.86608086495433922</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>93.834808259587021</v>
+      </c>
+      <c r="L13">
+        <v>0.30124500508530472</v>
+      </c>
+      <c r="M13">
+        <v>0.93834808259587033</v>
+      </c>
+      <c r="N13">
+        <v>0.93429363785258546</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>93.067846607669622</v>
+      </c>
+      <c r="R13">
+        <v>0.76632767560992421</v>
+      </c>
+      <c r="S13">
+        <v>0.93067846607669613</v>
+      </c>
+      <c r="T13">
+        <v>0.90763721443029133</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>88.237874030052154</v>
+      </c>
+      <c r="X13">
+        <v>0.90149544568242967</v>
+      </c>
+      <c r="Y13">
+        <v>0.88237874030052166</v>
+      </c>
+      <c r="Z13">
+        <v>0.85947519530489236</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13">
+        <v>92.222424069412369</v>
+      </c>
+      <c r="AD13">
+        <v>0.47752826836147327</v>
+      </c>
+      <c r="AE13">
+        <v>0.92222424069412356</v>
+      </c>
+      <c r="AF13">
+        <v>0.91043671026706741</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI13">
+        <v>98.882689296620214</v>
+      </c>
+      <c r="AJ13">
+        <v>3.4613628225675798E-2</v>
+      </c>
+      <c r="AK13">
+        <v>0.98882689296620219</v>
+      </c>
+      <c r="AL13">
+        <v>0.98878827618050624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>91.982283583768023</v>
+      </c>
+      <c r="F14">
+        <v>0.24691579775429401</v>
+      </c>
+      <c r="G14">
+        <v>0.91982283583768021</v>
+      </c>
+      <c r="H14">
+        <v>0.90972332965589797</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>91.125961297243052</v>
+      </c>
+      <c r="L14">
+        <v>0.16501779293874491</v>
+      </c>
+      <c r="M14">
+        <v>0.91125961297243063</v>
+      </c>
+      <c r="N14">
+        <v>0.91229615282349363</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>80.147492625368727</v>
+      </c>
+      <c r="R14">
+        <v>0.69338639418503278</v>
+      </c>
+      <c r="S14">
+        <v>0.80147492625368721</v>
+      </c>
+      <c r="T14">
+        <v>0.75869076910393995</v>
+      </c>
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>77.758112094395273</v>
+      </c>
+      <c r="X14">
+        <v>4.0877417840624624</v>
+      </c>
+      <c r="Y14">
+        <v>0.77758112094395282</v>
+      </c>
+      <c r="Z14">
+        <v>0.72887559298210836</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14">
+        <v>92.04006955077466</v>
+      </c>
+      <c r="AD14">
+        <v>0.38518668799955119</v>
+      </c>
+      <c r="AE14">
+        <v>0.92040069550774661</v>
+      </c>
+      <c r="AF14">
+        <v>0.9211733078732619</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI14">
+        <v>92.703051064455579</v>
+      </c>
+      <c r="AJ14">
+        <v>0.22717189927131051</v>
+      </c>
+      <c r="AK14">
+        <v>0.92703051064455588</v>
+      </c>
+      <c r="AL14">
+        <v>0.92687726098117218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>86.585351084351942</v>
+      </c>
+      <c r="F15">
+        <v>0.36319868465542032</v>
+      </c>
+      <c r="G15">
+        <v>0.86585351084351936</v>
+      </c>
+      <c r="H15">
+        <v>0.85823046432926053</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>93.637834237320391</v>
+      </c>
+      <c r="L15">
+        <v>0.17096892139365799</v>
+      </c>
+      <c r="M15">
+        <v>0.93637834237320394</v>
+      </c>
+      <c r="N15">
+        <v>0.93155603597527681</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15">
+        <v>91.106843484805239</v>
+      </c>
+      <c r="R15">
+        <v>0.1760680764338228</v>
+      </c>
+      <c r="S15">
+        <v>0.91106843484805233</v>
+      </c>
+      <c r="T15">
+        <v>0.90754677121904825</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>99.912023460410552</v>
+      </c>
+      <c r="X15">
+        <v>1.274635274975632E-2</v>
+      </c>
+      <c r="Y15">
+        <v>0.99912023460410571</v>
+      </c>
+      <c r="Z15">
+        <v>0.99911984468286741</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15">
+        <v>82.779435808268232</v>
+      </c>
+      <c r="AD15">
+        <v>0.6118007886661937</v>
+      </c>
+      <c r="AE15">
+        <v>0.82779435808268231</v>
+      </c>
+      <c r="AF15">
+        <v>0.8112515959748805</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI15">
+        <v>92.359882005899706</v>
+      </c>
+      <c r="AJ15">
+        <v>1.2959878141529619</v>
+      </c>
+      <c r="AK15">
+        <v>0.92359882005899707</v>
+      </c>
+      <c r="AL15">
+        <v>0.90234394120401329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>84.070969472054259</v>
+      </c>
+      <c r="F16">
+        <v>0.48790832202092432</v>
+      </c>
+      <c r="G16">
+        <v>0.84070969472054258</v>
+      </c>
+      <c r="H16">
+        <v>0.82035058817363349</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>87.877576795647016</v>
+      </c>
+      <c r="L16">
+        <v>0.77816438973103075</v>
+      </c>
+      <c r="M16">
+        <v>0.87877576795647028</v>
+      </c>
+      <c r="N16">
+        <v>0.85085809315760774</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>92.157198591683326</v>
+      </c>
+      <c r="R16">
+        <v>0.2790241722545943</v>
+      </c>
+      <c r="S16">
+        <v>0.92157198591683331</v>
+      </c>
+      <c r="T16">
+        <v>0.92213313064801528</v>
+      </c>
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>91.222069395063983</v>
+      </c>
+      <c r="X16">
+        <v>0.23781782569077781</v>
+      </c>
+      <c r="Y16">
+        <v>0.91222069395063965</v>
+      </c>
+      <c r="Z16">
+        <v>0.91012830198269934</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC16">
+        <v>88.908554572271385</v>
+      </c>
+      <c r="AD16">
+        <v>0.49919789843452228</v>
+      </c>
+      <c r="AE16">
+        <v>0.88908554572271381</v>
+      </c>
+      <c r="AF16">
+        <v>0.86104331851559235</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI16">
+        <v>85.457227138643063</v>
+      </c>
+      <c r="AJ16">
+        <v>0.56831577381168852</v>
+      </c>
+      <c r="AK16">
+        <v>0.85457227138643077</v>
+      </c>
+      <c r="AL16">
+        <v>0.83299222013764374</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>88.053097345132741</v>
+      </c>
+      <c r="F17">
+        <v>0.3819317220285785</v>
+      </c>
+      <c r="G17">
+        <v>0.88053097345132747</v>
+      </c>
+      <c r="H17">
+        <v>0.87459843612030319</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>86.401179941002937</v>
+      </c>
+      <c r="L17">
+        <v>0.30874864852056488</v>
+      </c>
+      <c r="M17">
+        <v>0.86401179941002959</v>
+      </c>
+      <c r="N17">
+        <v>0.84956505867360155</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>87.143314388532787</v>
+      </c>
+      <c r="R17">
+        <v>0.67828927671507322</v>
+      </c>
+      <c r="S17">
+        <v>0.87143314388532767</v>
+      </c>
+      <c r="T17">
+        <v>0.84395666013676129</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17">
+        <v>81.268436578171091</v>
+      </c>
+      <c r="X17">
+        <v>1.518991204894053</v>
+      </c>
+      <c r="Y17">
+        <v>0.81268436578171088</v>
+      </c>
+      <c r="Z17">
+        <v>0.78556484077076516</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17">
+        <v>96.607669616519175</v>
+      </c>
+      <c r="AD17">
+        <v>7.3148440647882035E-2</v>
+      </c>
+      <c r="AE17">
+        <v>0.96607669616519176</v>
+      </c>
+      <c r="AF17">
+        <v>0.9662121096050823</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI17">
+        <v>93.392330383480825</v>
+      </c>
+      <c r="AJ17">
+        <v>0.1997583719928713</v>
+      </c>
+      <c r="AK17">
+        <v>0.93392330383480826</v>
+      </c>
+      <c r="AL17">
+        <v>0.92966413916345358</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>86.312684365781706</v>
+      </c>
+      <c r="F18">
+        <v>0.79116356964544909</v>
+      </c>
+      <c r="G18">
+        <v>0.86312684365781711</v>
+      </c>
+      <c r="H18">
+        <v>0.83302969992517695</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>80.530973451327426</v>
+      </c>
+      <c r="L18">
+        <v>1.649743729605526</v>
+      </c>
+      <c r="M18">
+        <v>0.80530973451327426</v>
+      </c>
+      <c r="N18">
+        <v>0.77992352092009798</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>81.592920353982294</v>
+      </c>
+      <c r="R18">
+        <v>0.69159540019901056</v>
+      </c>
+      <c r="S18">
+        <v>0.81592920353982312</v>
+      </c>
+      <c r="T18">
+        <v>0.79188526669466386</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>87.286135693215343</v>
+      </c>
+      <c r="X18">
+        <v>0.87285012939034878</v>
+      </c>
+      <c r="Y18">
+        <v>0.87286135693215328</v>
+      </c>
+      <c r="Z18">
+        <v>0.84000189217434573</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18">
+        <v>76.165883787922041</v>
+      </c>
+      <c r="AD18">
+        <v>2.446021645503476</v>
+      </c>
+      <c r="AE18">
+        <v>0.7616588378792204</v>
+      </c>
+      <c r="AF18">
+        <v>0.72900517049901192</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI18">
+        <v>81.445427728613566</v>
+      </c>
+      <c r="AJ18">
+        <v>1.175459664590617</v>
+      </c>
+      <c r="AK18">
+        <v>0.81445427728613562</v>
+      </c>
+      <c r="AL18">
+        <v>0.77454838157633321</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>88.112094395280238</v>
+      </c>
+      <c r="F19">
+        <v>1.895976609555321</v>
+      </c>
+      <c r="G19">
+        <v>0.88112094395280249</v>
+      </c>
+      <c r="H19">
+        <v>0.86236363082408241</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>80.252943364561972</v>
+      </c>
+      <c r="L19">
+        <v>4.0432193416740798</v>
+      </c>
+      <c r="M19">
+        <v>0.80252943364561991</v>
+      </c>
+      <c r="N19">
+        <v>0.78533220531975068</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="R19">
+        <v>0.48829665983986631</v>
+      </c>
+      <c r="S19">
+        <v>0.88466076696165197</v>
+      </c>
+      <c r="T19">
+        <v>0.8681544248099895</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>86.755767783458325</v>
+      </c>
+      <c r="X19">
+        <v>0.57101196687547195</v>
+      </c>
+      <c r="Y19">
+        <v>0.86755767783458337</v>
+      </c>
+      <c r="Z19">
+        <v>0.84596680793566603</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19">
+        <v>82.743362831858406</v>
+      </c>
+      <c r="AD19">
+        <v>2.2815843458319969</v>
+      </c>
+      <c r="AE19">
+        <v>0.82743362831858414</v>
+      </c>
+      <c r="AF19">
+        <v>0.80273338185137111</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI19">
+        <v>82.330383480825958</v>
+      </c>
+      <c r="AJ19">
+        <v>2.9865233264486521</v>
+      </c>
+      <c r="AK19">
+        <v>0.82330383480825964</v>
+      </c>
+      <c r="AL19">
+        <v>0.80330006335949855</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>96.997551881936687</v>
+      </c>
+      <c r="F20">
+        <v>5.0470078927931657E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.96997551881936706</v>
+      </c>
+      <c r="H20">
+        <v>0.9697772885469661</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>81.769911504424783</v>
+      </c>
+      <c r="L20">
+        <v>5.8799927013988302</v>
+      </c>
+      <c r="M20">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="N20">
+        <v>0.78111039970409768</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>90.935561726312514</v>
+      </c>
+      <c r="R20">
+        <v>0.18194955290944059</v>
+      </c>
+      <c r="S20">
+        <v>0.90935561726312508</v>
+      </c>
+      <c r="T20">
+        <v>0.90088961597949857</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20">
+        <v>88.310106488810462</v>
+      </c>
+      <c r="X20">
+        <v>1.974778891010861</v>
+      </c>
+      <c r="Y20">
+        <v>0.88310106488810458</v>
+      </c>
+      <c r="Z20">
+        <v>0.87185445575686271</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC20">
+        <v>90.383480825958699</v>
+      </c>
+      <c r="AD20">
+        <v>0.71294547231732397</v>
+      </c>
+      <c r="AE20">
+        <v>0.90383480825958706</v>
+      </c>
+      <c r="AF20">
+        <v>0.88692897630364231</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="AJ20">
+        <v>9.5004906672821104E-2</v>
+      </c>
+      <c r="AK20">
+        <v>0.94719764011799401</v>
+      </c>
+      <c r="AL20">
+        <v>0.94692587816037954</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>86.161818008806307</v>
+      </c>
+      <c r="F21">
+        <v>0.74911324365007648</v>
+      </c>
+      <c r="G21">
+        <v>0.86161818008806301</v>
+      </c>
+      <c r="H21">
+        <v>0.83006341994389243</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>89.011410133305645</v>
+      </c>
+      <c r="L21">
+        <v>1.43661854242224</v>
+      </c>
+      <c r="M21">
+        <v>0.89011410133305657</v>
+      </c>
+      <c r="N21">
+        <v>0.86676356052067383</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21">
+        <v>85.522798640126638</v>
+      </c>
+      <c r="R21">
+        <v>0.84638659743383537</v>
+      </c>
+      <c r="S21">
+        <v>0.8552279864012664</v>
+      </c>
+      <c r="T21">
+        <v>0.82434794395859379</v>
+      </c>
+      <c r="V21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21">
+        <v>87.341412988001622</v>
+      </c>
+      <c r="X21">
+        <v>1.0213422138046511</v>
+      </c>
+      <c r="Y21">
+        <v>0.87341412988001621</v>
+      </c>
+      <c r="Z21">
+        <v>0.84200899363988224</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21">
+        <v>86.171593179871792</v>
+      </c>
+      <c r="AD21">
+        <v>1.648111945497408</v>
+      </c>
+      <c r="AE21">
+        <v>0.86171593179871808</v>
+      </c>
+      <c r="AF21">
+        <v>0.82613156019531719</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI21">
+        <v>91.224318549468421</v>
+      </c>
+      <c r="AJ21">
+        <v>0.25909741416744442</v>
+      </c>
+      <c r="AK21">
+        <v>0.91224318549468431</v>
+      </c>
+      <c r="AL21">
+        <v>0.91013446245337004</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>78.681736001176475</v>
+      </c>
+      <c r="F22">
+        <v>2.2523827570259671</v>
+      </c>
+      <c r="G22">
+        <v>0.78681736001176483</v>
+      </c>
+      <c r="H22">
+        <v>0.75064936970625773</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>82.713864306784657</v>
+      </c>
+      <c r="L22">
+        <v>4.3992154076899652</v>
+      </c>
+      <c r="M22">
+        <v>0.82713864306784668</v>
+      </c>
+      <c r="N22">
+        <v>0.79540627048156409</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>87.997387520653291</v>
+      </c>
+      <c r="R22">
+        <v>0.59232099263125992</v>
+      </c>
+      <c r="S22">
+        <v>0.87997387520653292</v>
+      </c>
+      <c r="T22">
+        <v>0.85739372847494411</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22">
+        <v>83.156342182890853</v>
+      </c>
+      <c r="X22">
+        <v>1.1589254724853471</v>
+      </c>
+      <c r="Y22">
+        <v>0.83156342182890852</v>
+      </c>
+      <c r="Z22">
+        <v>0.78967652030293622</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22">
+        <v>86.619261412295955</v>
+      </c>
+      <c r="AD22">
+        <v>1.3978408519298109</v>
+      </c>
+      <c r="AE22">
+        <v>0.86619261412295967</v>
+      </c>
+      <c r="AF22">
+        <v>0.84914577863258867</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI22">
+        <v>71.864549001288935</v>
+      </c>
+      <c r="AJ22">
+        <v>3.6448184069881169</v>
+      </c>
+      <c r="AK22">
+        <v>0.71864549001288935</v>
+      </c>
+      <c r="AL22">
+        <v>0.63320075123152653</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>86.932153392330378</v>
+      </c>
+      <c r="F23">
+        <v>8.266458294881307</v>
+      </c>
+      <c r="G23">
+        <v>0.8693215339233038</v>
+      </c>
+      <c r="H23">
+        <v>0.83568578416643235</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>94.778847567885535</v>
+      </c>
+      <c r="L23">
+        <v>0.35816621611606841</v>
+      </c>
+      <c r="M23">
+        <v>0.94778847567885527</v>
+      </c>
+      <c r="N23">
+        <v>0.94103081907705166</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="R23">
+        <v>0.1133805129313401</v>
+      </c>
+      <c r="S23">
+        <v>0.98348082595870212</v>
+      </c>
+      <c r="T23">
+        <v>0.98332440336376303</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>98.613569321533916</v>
+      </c>
+      <c r="X23">
+        <v>7.836811284216362E-2</v>
+      </c>
+      <c r="Y23">
+        <v>0.98613569321533912</v>
+      </c>
+      <c r="Z23">
+        <v>0.98605576937273898</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC23">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="AD23">
+        <v>0.3901129552465169</v>
+      </c>
+      <c r="AE23">
+        <v>0.93628318584070802</v>
+      </c>
+      <c r="AF23">
+        <v>0.92573189685466883</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <v>100</v>
+      </c>
+      <c r="AJ23">
+        <v>7.3242705359925428E-3</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>79.789617557245307</v>
+      </c>
+      <c r="F24">
+        <v>4.8869618556360157</v>
+      </c>
+      <c r="G24">
+        <v>0.79789617557245296</v>
+      </c>
+      <c r="H24">
+        <v>0.76871141475780702</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>81.560567132933684</v>
+      </c>
+      <c r="L24">
+        <v>1.9963689179984361</v>
+      </c>
+      <c r="M24">
+        <v>0.8156056713293367</v>
+      </c>
+      <c r="N24">
+        <v>0.78870354888304528</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>88.166160606925672</v>
+      </c>
+      <c r="R24">
+        <v>1.317339016794828</v>
+      </c>
+      <c r="S24">
+        <v>0.8816616060692567</v>
+      </c>
+      <c r="T24">
+        <v>0.85454180862267892</v>
+      </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24">
+        <v>83.126843657817105</v>
+      </c>
+      <c r="X24">
+        <v>1.4284594712830609</v>
+      </c>
+      <c r="Y24">
+        <v>0.83126843657817118</v>
+      </c>
+      <c r="Z24">
+        <v>0.78891620559392039</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <v>81.522764037751188</v>
+      </c>
+      <c r="AD24">
+        <v>3.64070368790434</v>
+      </c>
+      <c r="AE24">
+        <v>0.81522764037751183</v>
+      </c>
+      <c r="AF24">
+        <v>0.77747593789858127</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI24">
+        <v>67.569961677869188</v>
+      </c>
+      <c r="AJ24">
+        <v>9.7307897179083174</v>
+      </c>
+      <c r="AK24">
+        <v>0.67569961677869184</v>
+      </c>
+      <c r="AL24">
+        <v>0.61345113339363899</v>
+      </c>
+    </row>
+    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>93.569321533923301</v>
+      </c>
+      <c r="F25">
+        <v>0.66417722040445526</v>
+      </c>
+      <c r="G25">
+        <v>0.935693215339233</v>
+      </c>
+      <c r="H25">
+        <v>0.91754366438288437</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>93.805309734513273</v>
+      </c>
+      <c r="L25">
+        <v>2.3545906901189309</v>
+      </c>
+      <c r="M25">
+        <v>0.93805309734513265</v>
+      </c>
+      <c r="N25">
+        <v>0.91670157616379533</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="R25">
+        <v>0.35039851652240162</v>
+      </c>
+      <c r="S25">
+        <v>0.90442477876106186</v>
+      </c>
+      <c r="T25">
+        <v>0.8877132325219419</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="X25">
+        <v>8.6528016736197227E-2</v>
+      </c>
+      <c r="Y25">
+        <v>0.96017699115044253</v>
+      </c>
+      <c r="Z25">
+        <v>0.95703100196146962</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC25">
+        <v>91.717488905613365</v>
+      </c>
+      <c r="AD25">
+        <v>0.2576556972518606</v>
+      </c>
+      <c r="AE25">
+        <v>0.91717488905613376</v>
+      </c>
+      <c r="AF25">
+        <v>0.90949354158965467</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI25">
+        <v>90.825958702064895</v>
+      </c>
+      <c r="AJ25">
+        <v>0.49264215385028831</v>
+      </c>
+      <c r="AK25">
+        <v>0.90825958702064891</v>
+      </c>
+      <c r="AL25">
+        <v>0.88466344931644314</v>
+      </c>
+    </row>
+    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>86.882498983555223</v>
+      </c>
+      <c r="F26">
+        <v>0.40986566899258448</v>
+      </c>
+      <c r="G26">
+        <v>0.86882498983555223</v>
+      </c>
+      <c r="H26">
+        <v>0.84599441967370059</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>89.919635983010238</v>
+      </c>
+      <c r="L26">
+        <v>0.27583010107420669</v>
+      </c>
+      <c r="M26">
+        <v>0.89919635983010227</v>
+      </c>
+      <c r="N26">
+        <v>0.88301868143229867</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>92.186870128634339</v>
+      </c>
+      <c r="R26">
+        <v>0.38041571551123238</v>
+      </c>
+      <c r="S26">
+        <v>0.92186870128634335</v>
+      </c>
+      <c r="T26">
+        <v>0.9206390050813219</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26">
+        <v>93.952802359882</v>
+      </c>
+      <c r="X26">
+        <v>0.10518513737905499</v>
+      </c>
+      <c r="Y26">
+        <v>0.93952802359882015</v>
+      </c>
+      <c r="Z26">
+        <v>0.93731477797282747</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26">
+        <v>93.185840707964601</v>
+      </c>
+      <c r="AD26">
+        <v>0.18692126682941121</v>
+      </c>
+      <c r="AE26">
+        <v>0.93185840707964596</v>
+      </c>
+      <c r="AF26">
+        <v>0.92988472215882112</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI26">
+        <v>93.775811209439524</v>
+      </c>
+      <c r="AJ26">
+        <v>0.27050606989517278</v>
+      </c>
+      <c r="AK26">
+        <v>0.9377581120943953</v>
+      </c>
+      <c r="AL26">
+        <v>0.93749203869880948</v>
+      </c>
+    </row>
+    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>96.873156342182895</v>
+      </c>
+      <c r="F27">
+        <v>0.16365293523207911</v>
+      </c>
+      <c r="G27">
+        <v>0.96873156342182887</v>
+      </c>
+      <c r="H27">
+        <v>0.9671244528971924</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="L27">
+        <v>0.49787211741375598</v>
+      </c>
+      <c r="M27">
+        <v>0.9336283185840708</v>
+      </c>
+      <c r="N27">
+        <v>0.92761974174733142</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>98.259587020648979</v>
+      </c>
+      <c r="R27">
+        <v>3.1127561992847559E-2</v>
+      </c>
+      <c r="S27">
+        <v>0.98259587020648964</v>
+      </c>
+      <c r="T27">
+        <v>0.98259404955229157</v>
+      </c>
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="X27">
+        <v>2.9160245964891789E-3</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27">
+        <v>97.905604719764014</v>
+      </c>
+      <c r="AD27">
+        <v>4.4867021615376132E-2</v>
+      </c>
+      <c r="AE27">
+        <v>0.97905604719764006</v>
+      </c>
+      <c r="AF27">
+        <v>0.9789972526945967</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27">
+        <v>99.705014749262531</v>
+      </c>
+      <c r="AJ27">
+        <v>6.9390889149805023E-3</v>
+      </c>
+      <c r="AK27">
+        <v>0.99705014749262533</v>
+      </c>
+      <c r="AL27">
+        <v>0.99705662714627719</v>
+      </c>
+    </row>
+    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>81.270685732575544</v>
+      </c>
+      <c r="F28">
+        <v>0.71271072458521356</v>
+      </c>
+      <c r="G28">
+        <v>0.81270685732575543</v>
+      </c>
+      <c r="H28">
+        <v>0.78433613162006</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28">
+        <v>89.203539823008853</v>
+      </c>
+      <c r="L28">
+        <v>0.6075676119223461</v>
+      </c>
+      <c r="M28">
+        <v>0.89203539823008848</v>
+      </c>
+      <c r="N28">
+        <v>0.87388550662666442</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>81.869825863545529</v>
+      </c>
+      <c r="R28">
+        <v>0.77934747140636507</v>
+      </c>
+      <c r="S28">
+        <v>0.81869825863545531</v>
+      </c>
+      <c r="T28">
+        <v>0.78620944085108546</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28">
+        <v>90.859609512193018</v>
+      </c>
+      <c r="X28">
+        <v>0.69288265604278709</v>
+      </c>
+      <c r="Y28">
+        <v>0.90859609512193007</v>
+      </c>
+      <c r="Z28">
+        <v>0.8909712845707507</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC28">
+        <v>93.225027898165209</v>
+      </c>
+      <c r="AD28">
+        <v>0.41607342897271021</v>
+      </c>
+      <c r="AE28">
+        <v>0.93225027898165214</v>
+      </c>
+      <c r="AF28">
+        <v>0.92093462374914792</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28">
+        <v>97.472815508784677</v>
+      </c>
+      <c r="AJ28">
+        <v>9.0646658349004622E-2</v>
+      </c>
+      <c r="AK28">
+        <v>0.97472815508784671</v>
+      </c>
+      <c r="AL28">
+        <v>0.97451482206080675</v>
+      </c>
+    </row>
+    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>89.155269509251809</v>
+      </c>
+      <c r="F29">
+        <v>0.70004910882414151</v>
+      </c>
+      <c r="G29">
+        <v>0.891552695092518</v>
+      </c>
+      <c r="H29">
+        <v>0.86842352130653389</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>88.265469424475981</v>
+      </c>
+      <c r="L29">
+        <v>0.93265977036954317</v>
+      </c>
+      <c r="M29">
+        <v>0.88265469424475995</v>
+      </c>
+      <c r="N29">
+        <v>0.85874703218867343</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>84.454277286135692</v>
+      </c>
+      <c r="R29">
+        <v>1.0476986292151189</v>
+      </c>
+      <c r="S29">
+        <v>0.84454277286135704</v>
+      </c>
+      <c r="T29">
+        <v>0.81440031190079942</v>
+      </c>
+      <c r="V29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="X29">
+        <v>0.66988547287677103</v>
+      </c>
+      <c r="Y29">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="Z29">
+        <v>0.90916487100606691</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC29">
+        <v>90.707964601769916</v>
+      </c>
+      <c r="AD29">
+        <v>0.62121425278386655</v>
+      </c>
+      <c r="AE29">
+        <v>0.90707964601769908</v>
+      </c>
+      <c r="AF29">
+        <v>0.88409004849447981</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI29">
+        <v>90.771459960726304</v>
+      </c>
+      <c r="AJ29">
+        <v>0.58100498649163024</v>
+      </c>
+      <c r="AK29">
+        <v>0.90771459960726308</v>
+      </c>
+      <c r="AL29">
+        <v>0.88707516825904231</v>
+      </c>
+    </row>
+    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>94.100294985250741</v>
+      </c>
+      <c r="F30">
+        <v>0.1067436916598544</v>
+      </c>
+      <c r="G30">
+        <v>0.94100294985250732</v>
+      </c>
+      <c r="H30">
+        <v>0.93874532062402882</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30">
+        <v>86.351352520350517</v>
+      </c>
+      <c r="L30">
+        <v>0.80564350883884683</v>
+      </c>
+      <c r="M30">
+        <v>0.86351352520350522</v>
+      </c>
+      <c r="N30">
+        <v>0.84388392781625998</v>
+      </c>
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30">
+        <v>91.27232934540956</v>
+      </c>
+      <c r="R30">
+        <v>0.59137670392968855</v>
+      </c>
+      <c r="S30">
+        <v>0.91272329345409564</v>
+      </c>
+      <c r="T30">
+        <v>0.90169662691248575</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30">
+        <v>93.132380037889604</v>
+      </c>
+      <c r="X30">
+        <v>0.36327451579753017</v>
+      </c>
+      <c r="Y30">
+        <v>0.93132380037889606</v>
+      </c>
+      <c r="Z30">
+        <v>0.91383561734831376</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC30">
+        <v>89.815742350712384</v>
+      </c>
+      <c r="AD30">
+        <v>0.84994709839684324</v>
+      </c>
+      <c r="AE30">
+        <v>0.89815742350712369</v>
+      </c>
+      <c r="AF30">
+        <v>0.88054838218523201</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI30">
+        <v>86.537426794349429</v>
+      </c>
+      <c r="AJ30">
+        <v>0.73454121847369291</v>
+      </c>
+      <c r="AK30">
+        <v>0.86537426794349437</v>
+      </c>
+      <c r="AL30">
+        <v>0.84961535358506846</v>
+      </c>
+    </row>
+    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>80.766961651917399</v>
+      </c>
+      <c r="F31">
+        <v>0.89137490518314733</v>
+      </c>
+      <c r="G31">
+        <v>0.80766961651917413</v>
+      </c>
+      <c r="H31">
+        <v>0.8057352673987207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31">
+        <v>80.39342900890145</v>
+      </c>
+      <c r="L31">
+        <v>0.93233227437017641</v>
+      </c>
+      <c r="M31">
+        <v>0.80393429008901462</v>
+      </c>
+      <c r="N31">
+        <v>0.78556152150546021</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>92.745611986262858</v>
+      </c>
+      <c r="R31">
+        <v>0.34905850905833802</v>
+      </c>
+      <c r="S31">
+        <v>0.92745611986262855</v>
+      </c>
+      <c r="T31">
+        <v>0.90535582530305392</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31">
+        <v>91.89880535298748</v>
+      </c>
+      <c r="X31">
+        <v>0.19693467218410179</v>
+      </c>
+      <c r="Y31">
+        <v>0.91898805352987478</v>
+      </c>
+      <c r="Z31">
+        <v>0.91799664566734263</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31">
+        <v>88.534589399562293</v>
+      </c>
+      <c r="AD31">
+        <v>0.50368182661011351</v>
+      </c>
+      <c r="AE31">
+        <v>0.8853458939956228</v>
+      </c>
+      <c r="AF31">
+        <v>0.86655278448749884</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI31">
+        <v>88.53908770837117</v>
+      </c>
+      <c r="AJ31">
+        <v>0.40398420266233948</v>
+      </c>
+      <c r="AK31">
+        <v>0.88539087708371178</v>
+      </c>
+      <c r="AL31">
+        <v>0.87598775740082557</v>
+      </c>
+    </row>
+    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>85.801434268462529</v>
+      </c>
+      <c r="F32">
+        <v>0.48619804690236679</v>
+      </c>
+      <c r="G32">
+        <v>0.85801434268462518</v>
+      </c>
+      <c r="H32">
+        <v>0.83218912676207013</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32">
+        <v>89.691087293142672</v>
+      </c>
+      <c r="L32">
+        <v>0.31551206175155722</v>
+      </c>
+      <c r="M32">
+        <v>0.89691087293142679</v>
+      </c>
+      <c r="N32">
+        <v>0.8940500881530633</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32">
+        <v>86.407754392339029</v>
+      </c>
+      <c r="R32">
+        <v>0.92722572197148312</v>
+      </c>
+      <c r="S32">
+        <v>0.86407754392339042</v>
+      </c>
+      <c r="T32">
+        <v>0.84294720722946936</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32">
+        <v>96.224188790560476</v>
+      </c>
+      <c r="X32">
+        <v>6.8009655712301748E-2</v>
+      </c>
+      <c r="Y32">
+        <v>0.96224188790560472</v>
+      </c>
+      <c r="Z32">
+        <v>0.9580037359184157</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32">
+        <v>85.860950354241822</v>
+      </c>
+      <c r="AD32">
+        <v>0.3719328873247415</v>
+      </c>
+      <c r="AE32">
+        <v>0.85860950354241816</v>
+      </c>
+      <c r="AF32">
+        <v>0.84324620432676167</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>85.13274336283186</v>
+      </c>
+      <c r="AJ32">
+        <v>1.0587660098555529</v>
+      </c>
+      <c r="AK32">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="AL32">
+        <v>0.83583759830916171</v>
+      </c>
+    </row>
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>79.768164084464402</v>
+      </c>
+      <c r="F33">
+        <v>0.91573325997241994</v>
+      </c>
+      <c r="G33">
+        <v>0.79768164084464399</v>
+      </c>
+      <c r="H33">
+        <v>0.76034362647426379</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33">
+        <v>88.676718656735787</v>
+      </c>
+      <c r="L33">
+        <v>0.39379884989031477</v>
+      </c>
+      <c r="M33">
+        <v>0.88676718656735787</v>
+      </c>
+      <c r="N33">
+        <v>0.87341089471161515</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>91.356932153392336</v>
+      </c>
+      <c r="R33">
+        <v>0.70171593537111221</v>
+      </c>
+      <c r="S33">
+        <v>0.91356932153392323</v>
+      </c>
+      <c r="T33">
+        <v>0.89060914653690548</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33">
+        <v>94.888364086194514</v>
+      </c>
+      <c r="X33">
+        <v>0.16901854609240061</v>
+      </c>
+      <c r="Y33">
+        <v>0.94888364086194521</v>
+      </c>
+      <c r="Z33">
+        <v>0.94540421868423707</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33">
+        <v>92.253133677626963</v>
+      </c>
+      <c r="AD33">
+        <v>0.21923568535810631</v>
+      </c>
+      <c r="AE33">
+        <v>0.92253133677626964</v>
+      </c>
+      <c r="AF33">
+        <v>0.91936899471167377</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI33">
+        <v>87.231982975631269</v>
+      </c>
+      <c r="AJ33">
+        <v>0.51505371269273359</v>
+      </c>
+      <c r="AK33">
+        <v>0.87231982975631284</v>
+      </c>
+      <c r="AL33">
+        <v>0.86264606196599214</v>
+      </c>
+    </row>
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>94.637150840405198</v>
+      </c>
+      <c r="F34">
+        <v>0.32663153217358248</v>
+      </c>
+      <c r="G34">
+        <v>0.94637150840405193</v>
+      </c>
+      <c r="H34">
+        <v>0.94473286702893911</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34">
+        <v>81.887905604719762</v>
+      </c>
+      <c r="L34">
+        <v>4.9734461439975899</v>
+      </c>
+      <c r="M34">
+        <v>0.81887905604719757</v>
+      </c>
+      <c r="N34">
+        <v>0.79210163995473881</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="R34">
+        <v>0.13023098494149579</v>
+      </c>
+      <c r="S34">
+        <v>0.9610619469026549</v>
+      </c>
+      <c r="T34">
+        <v>0.95974598854002946</v>
+      </c>
+      <c r="V34" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34">
+        <v>93.83757644962327</v>
+      </c>
+      <c r="X34">
+        <v>0.2366159550910796</v>
+      </c>
+      <c r="Y34">
+        <v>0.93837576449623261</v>
+      </c>
+      <c r="Z34">
+        <v>0.9298257719527554</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34">
+        <v>86.168651977958291</v>
+      </c>
+      <c r="AD34">
+        <v>0.8603411246214856</v>
+      </c>
+      <c r="AE34">
+        <v>0.86168651977958288</v>
+      </c>
+      <c r="AF34">
+        <v>0.81700335995093487</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI34">
+        <v>98.145399181653829</v>
+      </c>
+      <c r="AJ34">
+        <v>3.7616359868859681E-2</v>
+      </c>
+      <c r="AK34">
+        <v>0.98145399181653814</v>
+      </c>
+      <c r="AL34">
+        <v>0.98143158962599342</v>
+      </c>
+    </row>
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>98.908554572271385</v>
+      </c>
+      <c r="F35">
+        <v>1.7700900122435689E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.98908554572271379</v>
+      </c>
+      <c r="H35">
+        <v>0.98895977248487943</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>95.634218289085538</v>
+      </c>
+      <c r="L35">
+        <v>8.8110985557972171E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.95634218289085537</v>
+      </c>
+      <c r="N35">
+        <v>0.95694949434425403</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>78.823432728656826</v>
+      </c>
+      <c r="R35">
+        <v>4.7691618657688144</v>
+      </c>
+      <c r="S35">
+        <v>0.78823432728656828</v>
+      </c>
+      <c r="T35">
+        <v>0.74428358102460368</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35">
+        <v>89.722834972620873</v>
+      </c>
+      <c r="X35">
+        <v>0.80336973788262489</v>
+      </c>
+      <c r="Y35">
+        <v>0.89722834972620868</v>
+      </c>
+      <c r="Z35">
+        <v>0.87453730545484398</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35">
+        <v>89.105788112353906</v>
+      </c>
+      <c r="AD35">
+        <v>0.50528653759327091</v>
+      </c>
+      <c r="AE35">
+        <v>0.89105788112353912</v>
+      </c>
+      <c r="AF35">
+        <v>0.8900492450907237</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI35">
+        <v>88.79315565013539</v>
+      </c>
+      <c r="AJ35">
+        <v>1.1047108913193999</v>
+      </c>
+      <c r="AK35">
+        <v>0.8879315565013538</v>
+      </c>
+      <c r="AL35">
+        <v>0.86786200136129366</v>
+      </c>
+    </row>
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>96.961651917404126</v>
+      </c>
+      <c r="F36">
+        <v>0.16261391086118351</v>
+      </c>
+      <c r="G36">
+        <v>0.96961651917404124</v>
+      </c>
+      <c r="H36">
+        <v>0.96924361262827596</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>2.282863895687548E-3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>91.769911504424769</v>
+      </c>
+      <c r="R36">
+        <v>0.39694236123960608</v>
+      </c>
+      <c r="S36">
+        <v>0.91769911504424795</v>
+      </c>
+      <c r="T36">
+        <v>0.91473940472844961</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36">
+        <v>94.955752212389385</v>
+      </c>
+      <c r="X36">
+        <v>0.40360931603729122</v>
+      </c>
+      <c r="Y36">
+        <v>0.94955752212389366</v>
+      </c>
+      <c r="Z36">
+        <v>0.94790115217988657</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36">
+        <v>97.610619469026545</v>
+      </c>
+      <c r="AD36">
+        <v>0.1418693920607898</v>
+      </c>
+      <c r="AE36">
+        <v>0.97610619469026561</v>
+      </c>
+      <c r="AF36">
+        <v>0.97561771094620142</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI36">
+        <v>98.377581120943958</v>
+      </c>
+      <c r="AJ36">
+        <v>8.3779928493981831E-2</v>
+      </c>
+      <c r="AK36">
+        <v>0.98377581120943947</v>
+      </c>
+      <c r="AL36">
+        <v>0.98354008959267014</v>
+      </c>
+    </row>
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>87.957767800759513</v>
+      </c>
+      <c r="F37">
+        <v>0.60414140837575114</v>
+      </c>
+      <c r="G37">
+        <v>0.87957767800759523</v>
+      </c>
+      <c r="H37">
+        <v>0.85601260597395323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37">
+        <v>81.476223842766814</v>
+      </c>
+      <c r="L37">
+        <v>1.0455975360042269</v>
+      </c>
+      <c r="M37">
+        <v>0.81476223842766804</v>
+      </c>
+      <c r="N37">
+        <v>0.78055068244686743</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <v>97.052396647029823</v>
+      </c>
+      <c r="R37">
+        <v>5.7251761081853772E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.97052396647029815</v>
+      </c>
+      <c r="T37">
+        <v>0.97010429025886746</v>
+      </c>
+      <c r="V37" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37">
+        <v>87.227138643067846</v>
+      </c>
+      <c r="X37">
+        <v>0.43426969559421119</v>
+      </c>
+      <c r="Y37">
+        <v>0.87227138643067847</v>
+      </c>
+      <c r="Z37">
+        <v>0.85106575613065538</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37">
+        <v>99.705014749262531</v>
+      </c>
+      <c r="AD37">
+        <v>2.1924910797299149E-2</v>
+      </c>
+      <c r="AE37">
+        <v>0.99705014749262533</v>
+      </c>
+      <c r="AF37">
+        <v>0.99704490131184487</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI37">
+        <v>93.210581406413553</v>
+      </c>
+      <c r="AJ37">
+        <v>0.31496524606014448</v>
+      </c>
+      <c r="AK37">
+        <v>0.93210581406413551</v>
+      </c>
+      <c r="AL37">
+        <v>0.92734834342911387</v>
+      </c>
+    </row>
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>87.964601769911496</v>
+      </c>
+      <c r="F38">
+        <v>1.600314469020456</v>
+      </c>
+      <c r="G38">
+        <v>0.87964601769911499</v>
+      </c>
+      <c r="H38">
+        <v>0.86230453719684697</v>
+      </c>
+      <c r="J38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38">
+        <v>80.088495575221231</v>
+      </c>
+      <c r="L38">
+        <v>1.6518136983960621</v>
+      </c>
+      <c r="M38">
+        <v>0.80088495575221241</v>
+      </c>
+      <c r="N38">
+        <v>0.76021694419532115</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38">
+        <v>79.129923269232421</v>
+      </c>
+      <c r="R38">
+        <v>1.088248796185479</v>
+      </c>
+      <c r="S38">
+        <v>0.79129923269232427</v>
+      </c>
+      <c r="T38">
+        <v>0.75681544536793122</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38">
+        <v>92.448377581120937</v>
+      </c>
+      <c r="X38">
+        <v>1.7054228275241221</v>
+      </c>
+      <c r="Y38">
+        <v>0.92448377581120944</v>
+      </c>
+      <c r="Z38">
+        <v>0.9014268326010072</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38">
+        <v>94.306784660766965</v>
+      </c>
+      <c r="AD38">
+        <v>0.25628426034134011</v>
+      </c>
+      <c r="AE38">
+        <v>0.94306784660766962</v>
+      </c>
+      <c r="AF38">
+        <v>0.93835650781525093</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI38">
+        <v>83.274336283185832</v>
+      </c>
+      <c r="AJ38">
+        <v>2.4112763877663039</v>
+      </c>
+      <c r="AK38">
+        <v>0.83274336283185835</v>
+      </c>
+      <c r="AL38">
+        <v>0.80602141268261784</v>
+      </c>
+    </row>
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>95.340444121488943</v>
+      </c>
+      <c r="F39">
+        <v>0.1305525198567834</v>
+      </c>
+      <c r="G39">
+        <v>0.95340444121488943</v>
+      </c>
+      <c r="H39">
+        <v>0.94510480466377478</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39">
+        <v>96.172631251135385</v>
+      </c>
+      <c r="L39">
+        <v>8.4042446237316243E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.96172631251135388</v>
+      </c>
+      <c r="N39">
+        <v>0.96093985239747026</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>73.126843657817105</v>
+      </c>
+      <c r="R39">
+        <v>12.251119971834211</v>
+      </c>
+      <c r="S39">
+        <v>0.73126843657817109</v>
+      </c>
+      <c r="T39">
+        <v>0.67089241355079543</v>
+      </c>
+      <c r="V39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39">
+        <v>95.25800396197198</v>
+      </c>
+      <c r="X39">
+        <v>0.18809997442406801</v>
+      </c>
+      <c r="Y39">
+        <v>0.95258003961971993</v>
+      </c>
+      <c r="Z39">
+        <v>0.95146777715115527</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39">
+        <v>96.489675516224196</v>
+      </c>
+      <c r="AD39">
+        <v>0.22652775328417471</v>
+      </c>
+      <c r="AE39">
+        <v>0.96489675516224194</v>
+      </c>
+      <c r="AF39">
+        <v>0.96150382495484144</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI39">
+        <v>93.923303834808252</v>
+      </c>
+      <c r="AJ39">
+        <v>0.50101537608260638</v>
+      </c>
+      <c r="AK39">
+        <v>0.93923303834808247</v>
+      </c>
+      <c r="AL39">
+        <v>0.9192442599569961</v>
+      </c>
+    </row>
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>96.725663716814168</v>
+      </c>
+      <c r="F40">
+        <v>6.4439750023681561E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.96725663716814159</v>
+      </c>
+      <c r="H40">
+        <v>0.96555993327094214</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40">
+        <v>86.084654711545937</v>
+      </c>
+      <c r="L40">
+        <v>0.35822826314284462</v>
+      </c>
+      <c r="M40">
+        <v>0.86084654711545949</v>
+      </c>
+      <c r="N40">
+        <v>0.85966384246470073</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40">
+        <v>92.418879056047189</v>
+      </c>
+      <c r="R40">
+        <v>0.15801669478432859</v>
+      </c>
+      <c r="S40">
+        <v>0.92418879056047198</v>
+      </c>
+      <c r="T40">
+        <v>0.90215232468261808</v>
+      </c>
+      <c r="V40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W40">
+        <v>92.89301810569296</v>
+      </c>
+      <c r="X40">
+        <v>0.17795892789203571</v>
+      </c>
+      <c r="Y40">
+        <v>0.92893018105692948</v>
+      </c>
+      <c r="Z40">
+        <v>0.91536497128868888</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC40">
+        <v>88.099205010423958</v>
+      </c>
+      <c r="AD40">
+        <v>0.48324630747647562</v>
+      </c>
+      <c r="AE40">
+        <v>0.88099205010423964</v>
+      </c>
+      <c r="AF40">
+        <v>0.875429782055682</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI40">
+        <v>90.701649668249729</v>
+      </c>
+      <c r="AJ40">
+        <v>0.38269575803497918</v>
+      </c>
+      <c r="AK40">
+        <v>0.90701649668249718</v>
+      </c>
+      <c r="AL40">
+        <v>0.90633555657697884</v>
+      </c>
+    </row>
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>97.736745127553007</v>
+      </c>
+      <c r="F41">
+        <v>4.0512609020755888E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.97736745127553015</v>
+      </c>
+      <c r="H41">
+        <v>0.97722554946314766</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>8.9503558210258431E-4</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="R41">
+        <v>9.5767335255183605E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.95781710914454288</v>
+      </c>
+      <c r="T41">
+        <v>0.95696777034586655</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41">
+        <v>100</v>
+      </c>
+      <c r="X41">
+        <v>6.5778662110415869E-3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC41">
+        <v>98.141592920353986</v>
+      </c>
+      <c r="AD41">
+        <v>3.6895057975738152E-2</v>
+      </c>
+      <c r="AE41">
+        <v>0.98141592920353982</v>
+      </c>
+      <c r="AF41">
+        <v>0.98103968259179397</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI41">
+        <v>97.653958944281527</v>
+      </c>
+      <c r="AJ41">
+        <v>8.0740688511691625E-2</v>
+      </c>
+      <c r="AK41">
+        <v>0.97653958944281527</v>
+      </c>
+      <c r="AL41">
+        <v>0.97601776381411054</v>
+      </c>
+    </row>
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>92.581250702860757</v>
+      </c>
+      <c r="F42">
+        <v>0.34651040079558199</v>
+      </c>
+      <c r="G42">
+        <v>0.92581250702860751</v>
+      </c>
+      <c r="H42">
+        <v>0.92349063907982065</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>96.763639823873902</v>
+      </c>
+      <c r="L42">
+        <v>0.15022042621116191</v>
+      </c>
+      <c r="M42">
+        <v>0.96763639823873915</v>
+      </c>
+      <c r="N42">
+        <v>0.96738945135408072</v>
+      </c>
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42">
+        <v>92.49638837706209</v>
+      </c>
+      <c r="R42">
+        <v>0.26901806988611099</v>
+      </c>
+      <c r="S42">
+        <v>0.92496388377062078</v>
+      </c>
+      <c r="T42">
+        <v>0.92225758453154005</v>
+      </c>
+      <c r="V42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42">
+        <v>90.708656649278979</v>
+      </c>
+      <c r="X42">
+        <v>1.234433749030575</v>
+      </c>
+      <c r="Y42">
+        <v>0.90708656649278974</v>
+      </c>
+      <c r="Z42">
+        <v>0.89744159106189547</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC42">
+        <v>84.778761061946895</v>
+      </c>
+      <c r="AD42">
+        <v>4.4912871485313053</v>
+      </c>
+      <c r="AE42">
+        <v>0.84778761061946906</v>
+      </c>
+      <c r="AF42">
+        <v>0.81382050391464988</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI42">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="AJ42">
+        <v>9.4844624378093018E-2</v>
+      </c>
+      <c r="AK42">
+        <v>0.98348082595870212</v>
+      </c>
+      <c r="AL42">
+        <v>0.9832320349112843</v>
+      </c>
+    </row>
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>88.033287485185866</v>
+      </c>
+      <c r="F43">
+        <v>0.51624862598893984</v>
+      </c>
+      <c r="G43">
+        <v>0.88033287485185863</v>
+      </c>
+      <c r="H43">
+        <v>0.86378856835223305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>85.034645628422396</v>
+      </c>
+      <c r="L43">
+        <v>1.4656062254600219</v>
+      </c>
+      <c r="M43">
+        <v>0.85034645628422401</v>
+      </c>
+      <c r="N43">
+        <v>0.82839254040429178</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>89.262536873156336</v>
+      </c>
+      <c r="R43">
+        <v>0.56620777579592008</v>
+      </c>
+      <c r="S43">
+        <v>0.89262536873156351</v>
+      </c>
+      <c r="T43">
+        <v>0.87164271847215813</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43">
+        <v>91.887905604719762</v>
+      </c>
+      <c r="X43">
+        <v>0.85510990699976897</v>
+      </c>
+      <c r="Y43">
+        <v>0.91887905604719755</v>
+      </c>
+      <c r="Z43">
+        <v>0.89427701425988604</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC43">
+        <v>88.81322502789817</v>
+      </c>
+      <c r="AD43">
+        <v>0.73722497121161568</v>
+      </c>
+      <c r="AE43">
+        <v>0.88813225027898157</v>
+      </c>
+      <c r="AF43">
+        <v>0.86298517878378322</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI43">
+        <v>82.598292372771397</v>
+      </c>
+      <c r="AJ43">
+        <v>4.4630541979750351</v>
+      </c>
+      <c r="AK43">
+        <v>0.82598292372771387</v>
+      </c>
+      <c r="AL43">
+        <v>0.79398942305143572</v>
+      </c>
+    </row>
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>82.772861356932168</v>
+      </c>
+      <c r="F44">
+        <v>1.325218200513389</v>
+      </c>
+      <c r="G44">
+        <v>0.82772861356932148</v>
+      </c>
+      <c r="H44">
+        <v>0.81320573030422794</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>78.908554572271385</v>
+      </c>
+      <c r="L44">
+        <v>2.042355273220593</v>
+      </c>
+      <c r="M44">
+        <v>0.78908554572271383</v>
+      </c>
+      <c r="N44">
+        <v>0.76869036345708397</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>71.10978468671874</v>
+      </c>
+      <c r="R44">
+        <v>4.1997399722938944</v>
+      </c>
+      <c r="S44">
+        <v>0.71109784686718736</v>
+      </c>
+      <c r="T44">
+        <v>0.66979736625070629</v>
+      </c>
+      <c r="V44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44">
+        <v>80.442477876106196</v>
+      </c>
+      <c r="X44">
+        <v>4.2819673321206206</v>
+      </c>
+      <c r="Y44">
+        <v>0.80442477876106189</v>
+      </c>
+      <c r="Z44">
+        <v>0.78166183171972792</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44">
+        <v>87.320651562729779</v>
+      </c>
+      <c r="AD44">
+        <v>1.097216889235876</v>
+      </c>
+      <c r="AE44">
+        <v>0.87320651562729767</v>
+      </c>
+      <c r="AF44">
+        <v>0.84673464737891246</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI44">
+        <v>82.123893805309734</v>
+      </c>
+      <c r="AJ44">
+        <v>1.5490088459402009</v>
+      </c>
+      <c r="AK44">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="AL44">
+        <v>0.77486099924066709</v>
+      </c>
+    </row>
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="F45">
+        <v>0.7232832041683499</v>
+      </c>
+      <c r="G45">
+        <v>0.86519174041297942</v>
+      </c>
+      <c r="H45">
+        <v>0.86902178141093389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45">
+        <v>83.279872663258331</v>
+      </c>
+      <c r="L45">
+        <v>0.94422371333900279</v>
+      </c>
+      <c r="M45">
+        <v>0.83279872663258325</v>
+      </c>
+      <c r="N45">
+        <v>0.83261475015691055</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45">
+        <v>88.391422071125177</v>
+      </c>
+      <c r="R45">
+        <v>0.73365550423934756</v>
+      </c>
+      <c r="S45">
+        <v>0.88391422071125181</v>
+      </c>
+      <c r="T45">
+        <v>0.87447269646819448</v>
+      </c>
+      <c r="V45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45">
+        <v>90.863761797247392</v>
+      </c>
+      <c r="X45">
+        <v>0.37302184138308869</v>
+      </c>
+      <c r="Y45">
+        <v>0.90863761797247378</v>
+      </c>
+      <c r="Z45">
+        <v>0.90152566527036859</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45">
+        <v>70.985216135087668</v>
+      </c>
+      <c r="AD45">
+        <v>10.946313585353661</v>
+      </c>
+      <c r="AE45">
+        <v>0.7098521613508767</v>
+      </c>
+      <c r="AF45">
+        <v>0.64366207425049771</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI45">
+        <v>84.41223539996021</v>
+      </c>
+      <c r="AJ45">
+        <v>0.79786119583043635</v>
+      </c>
+      <c r="AK45">
+        <v>0.844122353999602</v>
+      </c>
+      <c r="AL45">
+        <v>0.83601412044662382</v>
+      </c>
+    </row>
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>98.21114369501467</v>
+      </c>
+      <c r="F46">
+        <v>8.4531415404502402E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.98211143695014658</v>
+      </c>
+      <c r="H46">
+        <v>0.98191649086691779</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46">
+        <v>91.537037517625578</v>
+      </c>
+      <c r="L46">
+        <v>0.1548770766917717</v>
+      </c>
+      <c r="M46">
+        <v>0.91537037517625586</v>
+      </c>
+      <c r="N46">
+        <v>0.89898605650105645</v>
+      </c>
+      <c r="P46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46">
+        <v>92.772861356932154</v>
+      </c>
+      <c r="R46">
+        <v>0.45289691665668769</v>
+      </c>
+      <c r="S46">
+        <v>0.92772861356932146</v>
+      </c>
+      <c r="T46">
+        <v>0.92094635986380458</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46">
+        <v>91.061946902654867</v>
+      </c>
+      <c r="X46">
+        <v>0.45535570146529958</v>
+      </c>
+      <c r="Y46">
+        <v>0.91061946902654856</v>
+      </c>
+      <c r="Z46">
+        <v>0.90496458411476188</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="AD46">
+        <v>0.1297805764457301</v>
+      </c>
+      <c r="AE46">
+        <v>0.94719764011799401</v>
+      </c>
+      <c r="AF46">
+        <v>0.94428877312793258</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI46">
+        <v>98.318584070796462</v>
+      </c>
+      <c r="AJ46">
+        <v>3.8909588924509589E-2</v>
+      </c>
+      <c r="AK46">
+        <v>0.98318584070796466</v>
+      </c>
+      <c r="AL46">
+        <v>0.98317524697617498</v>
+      </c>
+    </row>
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="F47">
+        <v>0.86209243069143215</v>
+      </c>
+      <c r="G47">
+        <v>0.9336283185840708</v>
+      </c>
+      <c r="H47">
+        <v>0.92388399255192222</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47">
+        <v>97.16814159292035</v>
+      </c>
+      <c r="L47">
+        <v>0.12907387587415539</v>
+      </c>
+      <c r="M47">
+        <v>0.97168141592920354</v>
+      </c>
+      <c r="N47">
+        <v>0.97122362571130749</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>99.442815249266872</v>
+      </c>
+      <c r="R47">
+        <v>1.6701231304411542E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.99442815249266869</v>
+      </c>
+      <c r="T47">
+        <v>0.99440373598299581</v>
+      </c>
+      <c r="V47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47">
+        <v>88.042284102803663</v>
+      </c>
+      <c r="X47">
+        <v>1.9171926822939671</v>
+      </c>
+      <c r="Y47">
+        <v>0.88042284102803658</v>
+      </c>
+      <c r="Z47">
+        <v>0.85460469229271752</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47">
+        <v>96.902654867256643</v>
+      </c>
+      <c r="AD47">
+        <v>8.828745299593295E-2</v>
+      </c>
+      <c r="AE47">
+        <v>0.96902654867256643</v>
+      </c>
+      <c r="AF47">
+        <v>0.96826151511015601</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI47">
+        <v>98.112094395280238</v>
+      </c>
+      <c r="AJ47">
+        <v>9.4380893962509538E-2</v>
+      </c>
+      <c r="AK47">
+        <v>0.98112094395280247</v>
+      </c>
+      <c r="AL47">
+        <v>0.98019664333644452</v>
+      </c>
+    </row>
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>98.445747800586517</v>
+      </c>
+      <c r="F48">
+        <v>0.1074753643123862</v>
+      </c>
+      <c r="G48">
+        <v>0.98445747800586503</v>
+      </c>
+      <c r="H48">
+        <v>0.98392324671437148</v>
+      </c>
+      <c r="J48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="R48">
+        <v>0.67858942842467496</v>
+      </c>
+      <c r="S48">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="T48">
+        <v>0.90829273614555406</v>
+      </c>
+      <c r="V48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="X48">
+        <v>1.198403643010953</v>
+      </c>
+      <c r="Y48">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="Z48">
+        <v>0.90829273614555406</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC48">
+        <v>100</v>
+      </c>
+      <c r="AD48">
+        <v>2.8554173174275481E-3</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI48">
+        <v>98.826979472140764</v>
+      </c>
+      <c r="AJ48">
+        <v>4.5784994269511492E-2</v>
+      </c>
+      <c r="AK48">
+        <v>0.98826979472140764</v>
+      </c>
+      <c r="AL48">
+        <v>0.98810915698961244</v>
+      </c>
+    </row>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <f>AVERAGE(E4:E48)</f>
+        <v>86.438367882844048</v>
+      </c>
+      <c r="J49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE(K4:K48)</f>
+        <v>86.502982051940094</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(Q4:Q48)</f>
+        <v>87.268188594480335</v>
+      </c>
+      <c r="V49" t="s">
+        <v>50</v>
+      </c>
+      <c r="W49">
+        <f>AVERAGE(W4:W48)</f>
+        <v>89.295505247546373</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49">
+        <f>AVERAGE(AC4:AC48)</f>
+        <v>88.943560642104728</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI49">
+        <f>AVERAGE(AI4:AI48)</f>
+        <v>88.981186880701571</v>
       </c>
     </row>
   </sheetData>
@@ -9700,4486 +14180,6 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="W1:Z1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
-  <dimension ref="A1:AL49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2"/>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AH1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="2">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="2">
-        <v>16</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6"/>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="6"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>61.393437659495319</v>
-      </c>
-      <c r="F4">
-        <v>6.6570862810738358</v>
-      </c>
-      <c r="G4">
-        <v>0.6139343765949532</v>
-      </c>
-      <c r="H4">
-        <v>0.51018167705773076</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>76.065882922862656</v>
-      </c>
-      <c r="L4">
-        <v>1.646622420657315</v>
-      </c>
-      <c r="M4">
-        <v>0.7606588292286266</v>
-      </c>
-      <c r="N4">
-        <v>0.71291037803002133</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>79.283298298428193</v>
-      </c>
-      <c r="R4">
-        <v>1.0728831404731629</v>
-      </c>
-      <c r="S4">
-        <v>0.79283298298428195</v>
-      </c>
-      <c r="T4">
-        <v>0.76864244454946806</v>
-      </c>
-      <c r="V4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>82.566371681415916</v>
-      </c>
-      <c r="X4">
-        <v>1.243791276403923</v>
-      </c>
-      <c r="Y4">
-        <v>0.82566371681415929</v>
-      </c>
-      <c r="Z4">
-        <v>0.79013605219293659</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>81.783925466483282</v>
-      </c>
-      <c r="AD4">
-        <v>2.5506618475580809</v>
-      </c>
-      <c r="AE4">
-        <v>0.81783925466483276</v>
-      </c>
-      <c r="AF4">
-        <v>0.77637849700266881</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI4">
-        <v>70.817394614140269</v>
-      </c>
-      <c r="AJ4">
-        <v>2.3337609318950241</v>
-      </c>
-      <c r="AK4">
-        <v>0.70817394614140272</v>
-      </c>
-      <c r="AL4">
-        <v>0.66582138213710307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>62.54984904713708</v>
-      </c>
-      <c r="F5">
-        <v>3.286276615742842</v>
-      </c>
-      <c r="G5">
-        <v>0.62549849047137085</v>
-      </c>
-      <c r="H5">
-        <v>0.52930029680839108</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>72.864125122189634</v>
-      </c>
-      <c r="L5">
-        <v>1.2783948752495069</v>
-      </c>
-      <c r="M5">
-        <v>0.72864125122189638</v>
-      </c>
-      <c r="N5">
-        <v>0.67977984437766448</v>
-      </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>67.138210538153444</v>
-      </c>
-      <c r="R5">
-        <v>2.488626776202056</v>
-      </c>
-      <c r="S5">
-        <v>0.67138210538153442</v>
-      </c>
-      <c r="T5">
-        <v>0.60844832342014876</v>
-      </c>
-      <c r="V5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5">
-        <v>67.931037465722028</v>
-      </c>
-      <c r="X5">
-        <v>3.620497537849706</v>
-      </c>
-      <c r="Y5">
-        <v>0.67931037465722022</v>
-      </c>
-      <c r="Z5">
-        <v>0.63329206934665438</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC5">
-        <v>92.361093089040565</v>
-      </c>
-      <c r="AD5">
-        <v>0.20778750671036181</v>
-      </c>
-      <c r="AE5">
-        <v>0.92361093089040569</v>
-      </c>
-      <c r="AF5">
-        <v>0.91861260188122917</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI5">
-        <v>74.778761061946895</v>
-      </c>
-      <c r="AJ5">
-        <v>1.5370912751166961</v>
-      </c>
-      <c r="AK5">
-        <v>0.74778761061946908</v>
-      </c>
-      <c r="AL5">
-        <v>0.68394458778148859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>70.129326378255868</v>
-      </c>
-      <c r="F6">
-        <v>3.2108134327818769</v>
-      </c>
-      <c r="G6">
-        <v>0.70129326378255874</v>
-      </c>
-      <c r="H6">
-        <v>0.6463279925148917</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>80.804418723345364</v>
-      </c>
-      <c r="L6">
-        <v>0.72887563494268715</v>
-      </c>
-      <c r="M6">
-        <v>0.80804418723345361</v>
-      </c>
-      <c r="N6">
-        <v>0.79159940949020213</v>
-      </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>75.844514225901605</v>
-      </c>
-      <c r="R6">
-        <v>1.824167566886262</v>
-      </c>
-      <c r="S6">
-        <v>0.75844514225901605</v>
-      </c>
-      <c r="T6">
-        <v>0.73174118364332386</v>
-      </c>
-      <c r="V6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>81.832368792117578</v>
-      </c>
-      <c r="X6">
-        <v>0.86740495970420428</v>
-      </c>
-      <c r="Y6">
-        <v>0.81832368792117582</v>
-      </c>
-      <c r="Z6">
-        <v>0.79021659519860177</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>75.284301767316322</v>
-      </c>
-      <c r="AD6">
-        <v>1.3997590312436541</v>
-      </c>
-      <c r="AE6">
-        <v>0.7528430176731632</v>
-      </c>
-      <c r="AF6">
-        <v>0.72390064774164165</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6">
-        <v>67.36944091211862</v>
-      </c>
-      <c r="AJ6">
-        <v>1.1461657775749661</v>
-      </c>
-      <c r="AK6">
-        <v>0.67369440912118617</v>
-      </c>
-      <c r="AL6">
-        <v>0.65378920534341312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>55.826607496604638</v>
-      </c>
-      <c r="F7">
-        <v>2.857943058497411</v>
-      </c>
-      <c r="G7">
-        <v>0.55826607496604641</v>
-      </c>
-      <c r="H7">
-        <v>0.46419153925948481</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>59.019887715291659</v>
-      </c>
-      <c r="L7">
-        <v>8.1112371941652555</v>
-      </c>
-      <c r="M7">
-        <v>0.59019887715291652</v>
-      </c>
-      <c r="N7">
-        <v>0.48150431387761877</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <v>62.387217882507628</v>
-      </c>
-      <c r="R7">
-        <v>2.2910092247053711</v>
-      </c>
-      <c r="S7">
-        <v>0.62387217882507628</v>
-      </c>
-      <c r="T7">
-        <v>0.5573546121525017</v>
-      </c>
-      <c r="V7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W7">
-        <v>76.121073711710309</v>
-      </c>
-      <c r="X7">
-        <v>3.121314323079476</v>
-      </c>
-      <c r="Y7">
-        <v>0.76121073711710308</v>
-      </c>
-      <c r="Z7">
-        <v>0.72418237692139653</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC7">
-        <v>83.900898796702393</v>
-      </c>
-      <c r="AD7">
-        <v>0.44379116843905042</v>
-      </c>
-      <c r="AE7">
-        <v>0.83900898796702383</v>
-      </c>
-      <c r="AF7">
-        <v>0.83364570521675996</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI7">
-        <v>90.035640446716656</v>
-      </c>
-      <c r="AJ7">
-        <v>0.95762828953430312</v>
-      </c>
-      <c r="AK7">
-        <v>0.90035640446716658</v>
-      </c>
-      <c r="AL7">
-        <v>0.879545014720993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>71.48790214448222</v>
-      </c>
-      <c r="F8">
-        <v>1.4503351479561459</v>
-      </c>
-      <c r="G8">
-        <v>0.71487902144482218</v>
-      </c>
-      <c r="H8">
-        <v>0.66867348592285447</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>82.123893805309734</v>
-      </c>
-      <c r="L8">
-        <v>1.701707737602945</v>
-      </c>
-      <c r="M8">
-        <v>0.82123893805309733</v>
-      </c>
-      <c r="N8">
-        <v>0.78509616625038303</v>
-      </c>
-      <c r="P8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8">
-        <v>86.342182890855455</v>
-      </c>
-      <c r="R8">
-        <v>0.35878811290998558</v>
-      </c>
-      <c r="S8">
-        <v>0.86342182890855457</v>
-      </c>
-      <c r="T8">
-        <v>0.84201631665850485</v>
-      </c>
-      <c r="V8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8">
-        <v>83.250201126307317</v>
-      </c>
-      <c r="X8">
-        <v>0.82322340059921562</v>
-      </c>
-      <c r="Y8">
-        <v>0.83250201126307322</v>
-      </c>
-      <c r="Z8">
-        <v>0.81409902593551065</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8">
-        <v>85.641311776053428</v>
-      </c>
-      <c r="AD8">
-        <v>0.61216149011964516</v>
-      </c>
-      <c r="AE8">
-        <v>0.8564131177605343</v>
-      </c>
-      <c r="AF8">
-        <v>0.83293316394105454</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI8">
-        <v>95.575221238938042</v>
-      </c>
-      <c r="AJ8">
-        <v>0.2180104830674926</v>
-      </c>
-      <c r="AK8">
-        <v>0.95575221238938057</v>
-      </c>
-      <c r="AL8">
-        <v>0.95538835664884447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>77.004472357027311</v>
-      </c>
-      <c r="F9">
-        <v>0.86188851859518167</v>
-      </c>
-      <c r="G9">
-        <v>0.77004472357027309</v>
-      </c>
-      <c r="H9">
-        <v>0.74674509333188444</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>85.811209439528028</v>
-      </c>
-      <c r="L9">
-        <v>0.72225338422005803</v>
-      </c>
-      <c r="M9">
-        <v>0.85811209439528024</v>
-      </c>
-      <c r="N9">
-        <v>0.82709310177604212</v>
-      </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>91.502781165927047</v>
-      </c>
-      <c r="R9">
-        <v>0.25213161793886529</v>
-      </c>
-      <c r="S9">
-        <v>0.91502781165927038</v>
-      </c>
-      <c r="T9">
-        <v>0.9073906724394305</v>
-      </c>
-      <c r="V9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9">
-        <v>87.869272225538282</v>
-      </c>
-      <c r="X9">
-        <v>0.3309993185638157</v>
-      </c>
-      <c r="Y9">
-        <v>0.87869272225538286</v>
-      </c>
-      <c r="Z9">
-        <v>0.87375496019039967</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9">
-        <v>88.060709867732413</v>
-      </c>
-      <c r="AD9">
-        <v>0.25809647867420138</v>
-      </c>
-      <c r="AE9">
-        <v>0.88060709867732423</v>
-      </c>
-      <c r="AF9">
-        <v>0.88030441457174413</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI9">
-        <v>82.209707696433355</v>
-      </c>
-      <c r="AJ9">
-        <v>1.087364868756681</v>
-      </c>
-      <c r="AK9">
-        <v>0.82209707696433365</v>
-      </c>
-      <c r="AL9">
-        <v>0.78811225131026941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>88.131644737411222</v>
-      </c>
-      <c r="F10">
-        <v>0.57052899376748445</v>
-      </c>
-      <c r="G10">
-        <v>0.88131644737411219</v>
-      </c>
-      <c r="H10">
-        <v>0.8801325088841041</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>60.506405764755748</v>
-      </c>
-      <c r="L10">
-        <v>3.309979934533958</v>
-      </c>
-      <c r="M10">
-        <v>0.60506405764755755</v>
-      </c>
-      <c r="N10">
-        <v>0.51936415761067167</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>83.716814159292042</v>
-      </c>
-      <c r="R10">
-        <v>0.7148725522833993</v>
-      </c>
-      <c r="S10">
-        <v>0.8371681415929203</v>
-      </c>
-      <c r="T10">
-        <v>0.82192751182619062</v>
-      </c>
-      <c r="V10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10">
-        <v>87.138643067846601</v>
-      </c>
-      <c r="X10">
-        <v>0.45457013525297019</v>
-      </c>
-      <c r="Y10">
-        <v>0.87138643067846611</v>
-      </c>
-      <c r="Z10">
-        <v>0.86413661907920236</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10">
-        <v>70.979679755015184</v>
-      </c>
-      <c r="AD10">
-        <v>2.0777172400378832</v>
-      </c>
-      <c r="AE10">
-        <v>0.70979679755015179</v>
-      </c>
-      <c r="AF10">
-        <v>0.66976773268793433</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI10">
-        <v>74.367165805932572</v>
-      </c>
-      <c r="AJ10">
-        <v>1.80142142728467</v>
-      </c>
-      <c r="AK10">
-        <v>0.74367165805932578</v>
-      </c>
-      <c r="AL10">
-        <v>0.71637610734373147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>83.465427901625446</v>
-      </c>
-      <c r="F11">
-        <v>1.396384413127481</v>
-      </c>
-      <c r="G11">
-        <v>0.83465427901625444</v>
-      </c>
-      <c r="H11">
-        <v>0.80677713260831363</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>89.800517305513011</v>
-      </c>
-      <c r="L11">
-        <v>0.86592875134660652</v>
-      </c>
-      <c r="M11">
-        <v>0.89800517305513028</v>
-      </c>
-      <c r="N11">
-        <v>0.87941385583690013</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>87.928096263808513</v>
-      </c>
-      <c r="R11">
-        <v>0.67600848035328998</v>
-      </c>
-      <c r="S11">
-        <v>0.87928096263808508</v>
-      </c>
-      <c r="T11">
-        <v>0.87155025839193656</v>
-      </c>
-      <c r="V11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11">
-        <v>82.895959307606475</v>
-      </c>
-      <c r="X11">
-        <v>1.176300806175439</v>
-      </c>
-      <c r="Y11">
-        <v>0.8289595930760647</v>
-      </c>
-      <c r="Z11">
-        <v>0.80431693328846554</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11">
-        <v>94.837758112094392</v>
-      </c>
-      <c r="AD11">
-        <v>0.18993338308580929</v>
-      </c>
-      <c r="AE11">
-        <v>0.94837758112094384</v>
-      </c>
-      <c r="AF11">
-        <v>0.94760913088411591</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI11">
-        <v>97.463126843657818</v>
-      </c>
-      <c r="AJ11">
-        <v>5.5002497690585357E-2</v>
-      </c>
-      <c r="AK11">
-        <v>0.9746312684365781</v>
-      </c>
-      <c r="AL11">
-        <v>0.97430694569694365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>93.126843657817105</v>
-      </c>
-      <c r="F12">
-        <v>1.1946696159771819</v>
-      </c>
-      <c r="G12">
-        <v>0.93126843657817115</v>
-      </c>
-      <c r="H12">
-        <v>0.90829273614555406</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>88.43657817109144</v>
-      </c>
-      <c r="L12">
-        <v>0.65181606207748422</v>
-      </c>
-      <c r="M12">
-        <v>0.88436578171091451</v>
-      </c>
-      <c r="N12">
-        <v>0.8705549678615544</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12">
-        <v>88.466076696165189</v>
-      </c>
-      <c r="R12">
-        <v>0.95857581632650124</v>
-      </c>
-      <c r="S12">
-        <v>0.88466076696165197</v>
-      </c>
-      <c r="T12">
-        <v>0.86767393570980256</v>
-      </c>
-      <c r="V12" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12">
-        <v>93.126843657817105</v>
-      </c>
-      <c r="X12">
-        <v>0.74947642435799211</v>
-      </c>
-      <c r="Y12">
-        <v>0.93126843657817115</v>
-      </c>
-      <c r="Z12">
-        <v>0.90829273614555406</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12">
-        <v>83.46378428879143</v>
-      </c>
-      <c r="AD12">
-        <v>0.627176602161578</v>
-      </c>
-      <c r="AE12">
-        <v>0.83463784288791421</v>
-      </c>
-      <c r="AF12">
-        <v>0.78404108744757495</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI12">
-        <v>92.774937499459341</v>
-      </c>
-      <c r="AJ12">
-        <v>0.3110775219143409</v>
-      </c>
-      <c r="AK12">
-        <v>0.92774937499459342</v>
-      </c>
-      <c r="AL12">
-        <v>0.90476547447161937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>88.585022361785136</v>
-      </c>
-      <c r="F13">
-        <v>0.69478079962490802</v>
-      </c>
-      <c r="G13">
-        <v>0.88585022361785126</v>
-      </c>
-      <c r="H13">
-        <v>0.86608086495433922</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <v>93.834808259587021</v>
-      </c>
-      <c r="L13">
-        <v>0.30124500508530472</v>
-      </c>
-      <c r="M13">
-        <v>0.93834808259587033</v>
-      </c>
-      <c r="N13">
-        <v>0.93429363785258546</v>
-      </c>
-      <c r="P13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13">
-        <v>93.067846607669622</v>
-      </c>
-      <c r="R13">
-        <v>0.76632767560992421</v>
-      </c>
-      <c r="S13">
-        <v>0.93067846607669613</v>
-      </c>
-      <c r="T13">
-        <v>0.90763721443029133</v>
-      </c>
-      <c r="V13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13">
-        <v>88.237874030052154</v>
-      </c>
-      <c r="X13">
-        <v>0.90149544568242967</v>
-      </c>
-      <c r="Y13">
-        <v>0.88237874030052166</v>
-      </c>
-      <c r="Z13">
-        <v>0.85947519530489236</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13">
-        <v>92.222424069412369</v>
-      </c>
-      <c r="AD13">
-        <v>0.47752826836147327</v>
-      </c>
-      <c r="AE13">
-        <v>0.92222424069412356</v>
-      </c>
-      <c r="AF13">
-        <v>0.91043671026706741</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI13">
-        <v>98.882689296620214</v>
-      </c>
-      <c r="AJ13">
-        <v>3.4613628225675798E-2</v>
-      </c>
-      <c r="AK13">
-        <v>0.98882689296620219</v>
-      </c>
-      <c r="AL13">
-        <v>0.98878827618050624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>91.982283583768023</v>
-      </c>
-      <c r="F14">
-        <v>0.24691579775429401</v>
-      </c>
-      <c r="G14">
-        <v>0.91982283583768021</v>
-      </c>
-      <c r="H14">
-        <v>0.90972332965589797</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>91.125961297243052</v>
-      </c>
-      <c r="L14">
-        <v>0.16501779293874491</v>
-      </c>
-      <c r="M14">
-        <v>0.91125961297243063</v>
-      </c>
-      <c r="N14">
-        <v>0.91229615282349363</v>
-      </c>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14">
-        <v>80.147492625368727</v>
-      </c>
-      <c r="R14">
-        <v>0.69338639418503278</v>
-      </c>
-      <c r="S14">
-        <v>0.80147492625368721</v>
-      </c>
-      <c r="T14">
-        <v>0.75869076910393995</v>
-      </c>
-      <c r="V14" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14">
-        <v>77.758112094395273</v>
-      </c>
-      <c r="X14">
-        <v>4.0877417840624624</v>
-      </c>
-      <c r="Y14">
-        <v>0.77758112094395282</v>
-      </c>
-      <c r="Z14">
-        <v>0.72887559298210836</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14">
-        <v>92.04006955077466</v>
-      </c>
-      <c r="AD14">
-        <v>0.38518668799955119</v>
-      </c>
-      <c r="AE14">
-        <v>0.92040069550774661</v>
-      </c>
-      <c r="AF14">
-        <v>0.9211733078732619</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI14">
-        <v>92.703051064455579</v>
-      </c>
-      <c r="AJ14">
-        <v>0.22717189927131051</v>
-      </c>
-      <c r="AK14">
-        <v>0.92703051064455588</v>
-      </c>
-      <c r="AL14">
-        <v>0.92687726098117218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>86.585351084351942</v>
-      </c>
-      <c r="F15">
-        <v>0.36319868465542032</v>
-      </c>
-      <c r="G15">
-        <v>0.86585351084351936</v>
-      </c>
-      <c r="H15">
-        <v>0.85823046432926053</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15">
-        <v>93.637834237320391</v>
-      </c>
-      <c r="L15">
-        <v>0.17096892139365799</v>
-      </c>
-      <c r="M15">
-        <v>0.93637834237320394</v>
-      </c>
-      <c r="N15">
-        <v>0.93155603597527681</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15">
-        <v>91.106843484805239</v>
-      </c>
-      <c r="R15">
-        <v>0.1760680764338228</v>
-      </c>
-      <c r="S15">
-        <v>0.91106843484805233</v>
-      </c>
-      <c r="T15">
-        <v>0.90754677121904825</v>
-      </c>
-      <c r="V15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15">
-        <v>99.912023460410552</v>
-      </c>
-      <c r="X15">
-        <v>1.274635274975632E-2</v>
-      </c>
-      <c r="Y15">
-        <v>0.99912023460410571</v>
-      </c>
-      <c r="Z15">
-        <v>0.99911984468286741</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15">
-        <v>82.779435808268232</v>
-      </c>
-      <c r="AD15">
-        <v>0.6118007886661937</v>
-      </c>
-      <c r="AE15">
-        <v>0.82779435808268231</v>
-      </c>
-      <c r="AF15">
-        <v>0.8112515959748805</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI15">
-        <v>92.359882005899706</v>
-      </c>
-      <c r="AJ15">
-        <v>1.2959878141529619</v>
-      </c>
-      <c r="AK15">
-        <v>0.92359882005899707</v>
-      </c>
-      <c r="AL15">
-        <v>0.90234394120401329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>84.070969472054259</v>
-      </c>
-      <c r="F16">
-        <v>0.48790832202092432</v>
-      </c>
-      <c r="G16">
-        <v>0.84070969472054258</v>
-      </c>
-      <c r="H16">
-        <v>0.82035058817363349</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>87.877576795647016</v>
-      </c>
-      <c r="L16">
-        <v>0.77816438973103075</v>
-      </c>
-      <c r="M16">
-        <v>0.87877576795647028</v>
-      </c>
-      <c r="N16">
-        <v>0.85085809315760774</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16">
-        <v>92.157198591683326</v>
-      </c>
-      <c r="R16">
-        <v>0.2790241722545943</v>
-      </c>
-      <c r="S16">
-        <v>0.92157198591683331</v>
-      </c>
-      <c r="T16">
-        <v>0.92213313064801528</v>
-      </c>
-      <c r="V16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16">
-        <v>91.222069395063983</v>
-      </c>
-      <c r="X16">
-        <v>0.23781782569077781</v>
-      </c>
-      <c r="Y16">
-        <v>0.91222069395063965</v>
-      </c>
-      <c r="Z16">
-        <v>0.91012830198269934</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16">
-        <v>88.908554572271385</v>
-      </c>
-      <c r="AD16">
-        <v>0.49919789843452228</v>
-      </c>
-      <c r="AE16">
-        <v>0.88908554572271381</v>
-      </c>
-      <c r="AF16">
-        <v>0.86104331851559235</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI16">
-        <v>85.457227138643063</v>
-      </c>
-      <c r="AJ16">
-        <v>0.56831577381168852</v>
-      </c>
-      <c r="AK16">
-        <v>0.85457227138643077</v>
-      </c>
-      <c r="AL16">
-        <v>0.83299222013764374</v>
-      </c>
-    </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>88.053097345132741</v>
-      </c>
-      <c r="F17">
-        <v>0.3819317220285785</v>
-      </c>
-      <c r="G17">
-        <v>0.88053097345132747</v>
-      </c>
-      <c r="H17">
-        <v>0.87459843612030319</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17">
-        <v>86.401179941002937</v>
-      </c>
-      <c r="L17">
-        <v>0.30874864852056488</v>
-      </c>
-      <c r="M17">
-        <v>0.86401179941002959</v>
-      </c>
-      <c r="N17">
-        <v>0.84956505867360155</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17">
-        <v>87.143314388532787</v>
-      </c>
-      <c r="R17">
-        <v>0.67828927671507322</v>
-      </c>
-      <c r="S17">
-        <v>0.87143314388532767</v>
-      </c>
-      <c r="T17">
-        <v>0.84395666013676129</v>
-      </c>
-      <c r="V17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17">
-        <v>81.268436578171091</v>
-      </c>
-      <c r="X17">
-        <v>1.518991204894053</v>
-      </c>
-      <c r="Y17">
-        <v>0.81268436578171088</v>
-      </c>
-      <c r="Z17">
-        <v>0.78556484077076516</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17">
-        <v>96.607669616519175</v>
-      </c>
-      <c r="AD17">
-        <v>7.3148440647882035E-2</v>
-      </c>
-      <c r="AE17">
-        <v>0.96607669616519176</v>
-      </c>
-      <c r="AF17">
-        <v>0.9662121096050823</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI17">
-        <v>93.392330383480825</v>
-      </c>
-      <c r="AJ17">
-        <v>0.1997583719928713</v>
-      </c>
-      <c r="AK17">
-        <v>0.93392330383480826</v>
-      </c>
-      <c r="AL17">
-        <v>0.92966413916345358</v>
-      </c>
-    </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>86.312684365781706</v>
-      </c>
-      <c r="F18">
-        <v>0.79116356964544909</v>
-      </c>
-      <c r="G18">
-        <v>0.86312684365781711</v>
-      </c>
-      <c r="H18">
-        <v>0.83302969992517695</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <v>80.530973451327426</v>
-      </c>
-      <c r="L18">
-        <v>1.649743729605526</v>
-      </c>
-      <c r="M18">
-        <v>0.80530973451327426</v>
-      </c>
-      <c r="N18">
-        <v>0.77992352092009798</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18">
-        <v>81.592920353982294</v>
-      </c>
-      <c r="R18">
-        <v>0.69159540019901056</v>
-      </c>
-      <c r="S18">
-        <v>0.81592920353982312</v>
-      </c>
-      <c r="T18">
-        <v>0.79188526669466386</v>
-      </c>
-      <c r="V18" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18">
-        <v>87.286135693215343</v>
-      </c>
-      <c r="X18">
-        <v>0.87285012939034878</v>
-      </c>
-      <c r="Y18">
-        <v>0.87286135693215328</v>
-      </c>
-      <c r="Z18">
-        <v>0.84000189217434573</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC18">
-        <v>76.165883787922041</v>
-      </c>
-      <c r="AD18">
-        <v>2.446021645503476</v>
-      </c>
-      <c r="AE18">
-        <v>0.7616588378792204</v>
-      </c>
-      <c r="AF18">
-        <v>0.72900517049901192</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI18">
-        <v>81.445427728613566</v>
-      </c>
-      <c r="AJ18">
-        <v>1.175459664590617</v>
-      </c>
-      <c r="AK18">
-        <v>0.81445427728613562</v>
-      </c>
-      <c r="AL18">
-        <v>0.77454838157633321</v>
-      </c>
-    </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>88.112094395280238</v>
-      </c>
-      <c r="F19">
-        <v>1.895976609555321</v>
-      </c>
-      <c r="G19">
-        <v>0.88112094395280249</v>
-      </c>
-      <c r="H19">
-        <v>0.86236363082408241</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>80.252943364561972</v>
-      </c>
-      <c r="L19">
-        <v>4.0432193416740798</v>
-      </c>
-      <c r="M19">
-        <v>0.80252943364561991</v>
-      </c>
-      <c r="N19">
-        <v>0.78533220531975068</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19">
-        <v>88.466076696165189</v>
-      </c>
-      <c r="R19">
-        <v>0.48829665983986631</v>
-      </c>
-      <c r="S19">
-        <v>0.88466076696165197</v>
-      </c>
-      <c r="T19">
-        <v>0.8681544248099895</v>
-      </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19">
-        <v>86.755767783458325</v>
-      </c>
-      <c r="X19">
-        <v>0.57101196687547195</v>
-      </c>
-      <c r="Y19">
-        <v>0.86755767783458337</v>
-      </c>
-      <c r="Z19">
-        <v>0.84596680793566603</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC19">
-        <v>82.743362831858406</v>
-      </c>
-      <c r="AD19">
-        <v>2.2815843458319969</v>
-      </c>
-      <c r="AE19">
-        <v>0.82743362831858414</v>
-      </c>
-      <c r="AF19">
-        <v>0.80273338185137111</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI19">
-        <v>82.330383480825958</v>
-      </c>
-      <c r="AJ19">
-        <v>2.9865233264486521</v>
-      </c>
-      <c r="AK19">
-        <v>0.82330383480825964</v>
-      </c>
-      <c r="AL19">
-        <v>0.80330006335949855</v>
-      </c>
-    </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>96.997551881936687</v>
-      </c>
-      <c r="F20">
-        <v>5.0470078927931657E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.96997551881936706</v>
-      </c>
-      <c r="H20">
-        <v>0.9697772885469661</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <v>81.769911504424783</v>
-      </c>
-      <c r="L20">
-        <v>5.8799927013988302</v>
-      </c>
-      <c r="M20">
-        <v>0.81769911504424775</v>
-      </c>
-      <c r="N20">
-        <v>0.78111039970409768</v>
-      </c>
-      <c r="P20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20">
-        <v>90.935561726312514</v>
-      </c>
-      <c r="R20">
-        <v>0.18194955290944059</v>
-      </c>
-      <c r="S20">
-        <v>0.90935561726312508</v>
-      </c>
-      <c r="T20">
-        <v>0.90088961597949857</v>
-      </c>
-      <c r="V20" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20">
-        <v>88.310106488810462</v>
-      </c>
-      <c r="X20">
-        <v>1.974778891010861</v>
-      </c>
-      <c r="Y20">
-        <v>0.88310106488810458</v>
-      </c>
-      <c r="Z20">
-        <v>0.87185445575686271</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC20">
-        <v>90.383480825958699</v>
-      </c>
-      <c r="AD20">
-        <v>0.71294547231732397</v>
-      </c>
-      <c r="AE20">
-        <v>0.90383480825958706</v>
-      </c>
-      <c r="AF20">
-        <v>0.88692897630364231</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI20">
-        <v>94.719764011799413</v>
-      </c>
-      <c r="AJ20">
-        <v>9.5004906672821104E-2</v>
-      </c>
-      <c r="AK20">
-        <v>0.94719764011799401</v>
-      </c>
-      <c r="AL20">
-        <v>0.94692587816037954</v>
-      </c>
-    </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>86.161818008806307</v>
-      </c>
-      <c r="F21">
-        <v>0.74911324365007648</v>
-      </c>
-      <c r="G21">
-        <v>0.86161818008806301</v>
-      </c>
-      <c r="H21">
-        <v>0.83006341994389243</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21">
-        <v>89.011410133305645</v>
-      </c>
-      <c r="L21">
-        <v>1.43661854242224</v>
-      </c>
-      <c r="M21">
-        <v>0.89011410133305657</v>
-      </c>
-      <c r="N21">
-        <v>0.86676356052067383</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21">
-        <v>85.522798640126638</v>
-      </c>
-      <c r="R21">
-        <v>0.84638659743383537</v>
-      </c>
-      <c r="S21">
-        <v>0.8552279864012664</v>
-      </c>
-      <c r="T21">
-        <v>0.82434794395859379</v>
-      </c>
-      <c r="V21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21">
-        <v>87.341412988001622</v>
-      </c>
-      <c r="X21">
-        <v>1.0213422138046511</v>
-      </c>
-      <c r="Y21">
-        <v>0.87341412988001621</v>
-      </c>
-      <c r="Z21">
-        <v>0.84200899363988224</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC21">
-        <v>86.171593179871792</v>
-      </c>
-      <c r="AD21">
-        <v>1.648111945497408</v>
-      </c>
-      <c r="AE21">
-        <v>0.86171593179871808</v>
-      </c>
-      <c r="AF21">
-        <v>0.82613156019531719</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI21">
-        <v>91.224318549468421</v>
-      </c>
-      <c r="AJ21">
-        <v>0.25909741416744442</v>
-      </c>
-      <c r="AK21">
-        <v>0.91224318549468431</v>
-      </c>
-      <c r="AL21">
-        <v>0.91013446245337004</v>
-      </c>
-    </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>78.681736001176475</v>
-      </c>
-      <c r="F22">
-        <v>2.2523827570259671</v>
-      </c>
-      <c r="G22">
-        <v>0.78681736001176483</v>
-      </c>
-      <c r="H22">
-        <v>0.75064936970625773</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22">
-        <v>82.713864306784657</v>
-      </c>
-      <c r="L22">
-        <v>4.3992154076899652</v>
-      </c>
-      <c r="M22">
-        <v>0.82713864306784668</v>
-      </c>
-      <c r="N22">
-        <v>0.79540627048156409</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22">
-        <v>87.997387520653291</v>
-      </c>
-      <c r="R22">
-        <v>0.59232099263125992</v>
-      </c>
-      <c r="S22">
-        <v>0.87997387520653292</v>
-      </c>
-      <c r="T22">
-        <v>0.85739372847494411</v>
-      </c>
-      <c r="V22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22">
-        <v>83.156342182890853</v>
-      </c>
-      <c r="X22">
-        <v>1.1589254724853471</v>
-      </c>
-      <c r="Y22">
-        <v>0.83156342182890852</v>
-      </c>
-      <c r="Z22">
-        <v>0.78967652030293622</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC22">
-        <v>86.619261412295955</v>
-      </c>
-      <c r="AD22">
-        <v>1.3978408519298109</v>
-      </c>
-      <c r="AE22">
-        <v>0.86619261412295967</v>
-      </c>
-      <c r="AF22">
-        <v>0.84914577863258867</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI22">
-        <v>71.864549001288935</v>
-      </c>
-      <c r="AJ22">
-        <v>3.6448184069881169</v>
-      </c>
-      <c r="AK22">
-        <v>0.71864549001288935</v>
-      </c>
-      <c r="AL22">
-        <v>0.63320075123152653</v>
-      </c>
-    </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>86.932153392330378</v>
-      </c>
-      <c r="F23">
-        <v>8.266458294881307</v>
-      </c>
-      <c r="G23">
-        <v>0.8693215339233038</v>
-      </c>
-      <c r="H23">
-        <v>0.83568578416643235</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>94.778847567885535</v>
-      </c>
-      <c r="L23">
-        <v>0.35816621611606841</v>
-      </c>
-      <c r="M23">
-        <v>0.94778847567885527</v>
-      </c>
-      <c r="N23">
-        <v>0.94103081907705166</v>
-      </c>
-      <c r="P23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23">
-        <v>98.34808259587021</v>
-      </c>
-      <c r="R23">
-        <v>0.1133805129313401</v>
-      </c>
-      <c r="S23">
-        <v>0.98348082595870212</v>
-      </c>
-      <c r="T23">
-        <v>0.98332440336376303</v>
-      </c>
-      <c r="V23" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23">
-        <v>98.613569321533916</v>
-      </c>
-      <c r="X23">
-        <v>7.836811284216362E-2</v>
-      </c>
-      <c r="Y23">
-        <v>0.98613569321533912</v>
-      </c>
-      <c r="Z23">
-        <v>0.98605576937273898</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC23">
-        <v>93.628318584070797</v>
-      </c>
-      <c r="AD23">
-        <v>0.3901129552465169</v>
-      </c>
-      <c r="AE23">
-        <v>0.93628318584070802</v>
-      </c>
-      <c r="AF23">
-        <v>0.92573189685466883</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI23">
-        <v>100</v>
-      </c>
-      <c r="AJ23">
-        <v>7.3242705359925428E-3</v>
-      </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
-      <c r="AL23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>79.789617557245307</v>
-      </c>
-      <c r="F24">
-        <v>4.8869618556360157</v>
-      </c>
-      <c r="G24">
-        <v>0.79789617557245296</v>
-      </c>
-      <c r="H24">
-        <v>0.76871141475780702</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24">
-        <v>81.560567132933684</v>
-      </c>
-      <c r="L24">
-        <v>1.9963689179984361</v>
-      </c>
-      <c r="M24">
-        <v>0.8156056713293367</v>
-      </c>
-      <c r="N24">
-        <v>0.78870354888304528</v>
-      </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24">
-        <v>88.166160606925672</v>
-      </c>
-      <c r="R24">
-        <v>1.317339016794828</v>
-      </c>
-      <c r="S24">
-        <v>0.8816616060692567</v>
-      </c>
-      <c r="T24">
-        <v>0.85454180862267892</v>
-      </c>
-      <c r="V24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24">
-        <v>83.126843657817105</v>
-      </c>
-      <c r="X24">
-        <v>1.4284594712830609</v>
-      </c>
-      <c r="Y24">
-        <v>0.83126843657817118</v>
-      </c>
-      <c r="Z24">
-        <v>0.78891620559392039</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC24">
-        <v>81.522764037751188</v>
-      </c>
-      <c r="AD24">
-        <v>3.64070368790434</v>
-      </c>
-      <c r="AE24">
-        <v>0.81522764037751183</v>
-      </c>
-      <c r="AF24">
-        <v>0.77747593789858127</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI24">
-        <v>67.569961677869188</v>
-      </c>
-      <c r="AJ24">
-        <v>9.7307897179083174</v>
-      </c>
-      <c r="AK24">
-        <v>0.67569961677869184</v>
-      </c>
-      <c r="AL24">
-        <v>0.61345113339363899</v>
-      </c>
-    </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>93.569321533923301</v>
-      </c>
-      <c r="F25">
-        <v>0.66417722040445526</v>
-      </c>
-      <c r="G25">
-        <v>0.935693215339233</v>
-      </c>
-      <c r="H25">
-        <v>0.91754366438288437</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25">
-        <v>93.805309734513273</v>
-      </c>
-      <c r="L25">
-        <v>2.3545906901189309</v>
-      </c>
-      <c r="M25">
-        <v>0.93805309734513265</v>
-      </c>
-      <c r="N25">
-        <v>0.91670157616379533</v>
-      </c>
-      <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25">
-        <v>90.442477876106196</v>
-      </c>
-      <c r="R25">
-        <v>0.35039851652240162</v>
-      </c>
-      <c r="S25">
-        <v>0.90442477876106186</v>
-      </c>
-      <c r="T25">
-        <v>0.8877132325219419</v>
-      </c>
-      <c r="V25" t="s">
-        <v>26</v>
-      </c>
-      <c r="W25">
-        <v>96.017699115044252</v>
-      </c>
-      <c r="X25">
-        <v>8.6528016736197227E-2</v>
-      </c>
-      <c r="Y25">
-        <v>0.96017699115044253</v>
-      </c>
-      <c r="Z25">
-        <v>0.95703100196146962</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25">
-        <v>91.717488905613365</v>
-      </c>
-      <c r="AD25">
-        <v>0.2576556972518606</v>
-      </c>
-      <c r="AE25">
-        <v>0.91717488905613376</v>
-      </c>
-      <c r="AF25">
-        <v>0.90949354158965467</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI25">
-        <v>90.825958702064895</v>
-      </c>
-      <c r="AJ25">
-        <v>0.49264215385028831</v>
-      </c>
-      <c r="AK25">
-        <v>0.90825958702064891</v>
-      </c>
-      <c r="AL25">
-        <v>0.88466344931644314</v>
-      </c>
-    </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>86.882498983555223</v>
-      </c>
-      <c r="F26">
-        <v>0.40986566899258448</v>
-      </c>
-      <c r="G26">
-        <v>0.86882498983555223</v>
-      </c>
-      <c r="H26">
-        <v>0.84599441967370059</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26">
-        <v>89.919635983010238</v>
-      </c>
-      <c r="L26">
-        <v>0.27583010107420669</v>
-      </c>
-      <c r="M26">
-        <v>0.89919635983010227</v>
-      </c>
-      <c r="N26">
-        <v>0.88301868143229867</v>
-      </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26">
-        <v>92.186870128634339</v>
-      </c>
-      <c r="R26">
-        <v>0.38041571551123238</v>
-      </c>
-      <c r="S26">
-        <v>0.92186870128634335</v>
-      </c>
-      <c r="T26">
-        <v>0.9206390050813219</v>
-      </c>
-      <c r="V26" t="s">
-        <v>27</v>
-      </c>
-      <c r="W26">
-        <v>93.952802359882</v>
-      </c>
-      <c r="X26">
-        <v>0.10518513737905499</v>
-      </c>
-      <c r="Y26">
-        <v>0.93952802359882015</v>
-      </c>
-      <c r="Z26">
-        <v>0.93731477797282747</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC26">
-        <v>93.185840707964601</v>
-      </c>
-      <c r="AD26">
-        <v>0.18692126682941121</v>
-      </c>
-      <c r="AE26">
-        <v>0.93185840707964596</v>
-      </c>
-      <c r="AF26">
-        <v>0.92988472215882112</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI26">
-        <v>93.775811209439524</v>
-      </c>
-      <c r="AJ26">
-        <v>0.27050606989517278</v>
-      </c>
-      <c r="AK26">
-        <v>0.9377581120943953</v>
-      </c>
-      <c r="AL26">
-        <v>0.93749203869880948</v>
-      </c>
-    </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>96.873156342182895</v>
-      </c>
-      <c r="F27">
-        <v>0.16365293523207911</v>
-      </c>
-      <c r="G27">
-        <v>0.96873156342182887</v>
-      </c>
-      <c r="H27">
-        <v>0.9671244528971924</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27">
-        <v>93.362831858407077</v>
-      </c>
-      <c r="L27">
-        <v>0.49787211741375598</v>
-      </c>
-      <c r="M27">
-        <v>0.9336283185840708</v>
-      </c>
-      <c r="N27">
-        <v>0.92761974174733142</v>
-      </c>
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27">
-        <v>98.259587020648979</v>
-      </c>
-      <c r="R27">
-        <v>3.1127561992847559E-2</v>
-      </c>
-      <c r="S27">
-        <v>0.98259587020648964</v>
-      </c>
-      <c r="T27">
-        <v>0.98259404955229157</v>
-      </c>
-      <c r="V27" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27">
-        <v>100</v>
-      </c>
-      <c r="X27">
-        <v>2.9160245964891789E-3</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27">
-        <v>97.905604719764014</v>
-      </c>
-      <c r="AD27">
-        <v>4.4867021615376132E-2</v>
-      </c>
-      <c r="AE27">
-        <v>0.97905604719764006</v>
-      </c>
-      <c r="AF27">
-        <v>0.9789972526945967</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI27">
-        <v>99.705014749262531</v>
-      </c>
-      <c r="AJ27">
-        <v>6.9390889149805023E-3</v>
-      </c>
-      <c r="AK27">
-        <v>0.99705014749262533</v>
-      </c>
-      <c r="AL27">
-        <v>0.99705662714627719</v>
-      </c>
-    </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28">
-        <v>81.270685732575544</v>
-      </c>
-      <c r="F28">
-        <v>0.71271072458521356</v>
-      </c>
-      <c r="G28">
-        <v>0.81270685732575543</v>
-      </c>
-      <c r="H28">
-        <v>0.78433613162006</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28">
-        <v>89.203539823008853</v>
-      </c>
-      <c r="L28">
-        <v>0.6075676119223461</v>
-      </c>
-      <c r="M28">
-        <v>0.89203539823008848</v>
-      </c>
-      <c r="N28">
-        <v>0.87388550662666442</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28">
-        <v>81.869825863545529</v>
-      </c>
-      <c r="R28">
-        <v>0.77934747140636507</v>
-      </c>
-      <c r="S28">
-        <v>0.81869825863545531</v>
-      </c>
-      <c r="T28">
-        <v>0.78620944085108546</v>
-      </c>
-      <c r="V28" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28">
-        <v>90.859609512193018</v>
-      </c>
-      <c r="X28">
-        <v>0.69288265604278709</v>
-      </c>
-      <c r="Y28">
-        <v>0.90859609512193007</v>
-      </c>
-      <c r="Z28">
-        <v>0.8909712845707507</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC28">
-        <v>93.225027898165209</v>
-      </c>
-      <c r="AD28">
-        <v>0.41607342897271021</v>
-      </c>
-      <c r="AE28">
-        <v>0.93225027898165214</v>
-      </c>
-      <c r="AF28">
-        <v>0.92093462374914792</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI28">
-        <v>97.472815508784677</v>
-      </c>
-      <c r="AJ28">
-        <v>9.0646658349004622E-2</v>
-      </c>
-      <c r="AK28">
-        <v>0.97472815508784671</v>
-      </c>
-      <c r="AL28">
-        <v>0.97451482206080675</v>
-      </c>
-    </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>89.155269509251809</v>
-      </c>
-      <c r="F29">
-        <v>0.70004910882414151</v>
-      </c>
-      <c r="G29">
-        <v>0.891552695092518</v>
-      </c>
-      <c r="H29">
-        <v>0.86842352130653389</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29">
-        <v>88.265469424475981</v>
-      </c>
-      <c r="L29">
-        <v>0.93265977036954317</v>
-      </c>
-      <c r="M29">
-        <v>0.88265469424475995</v>
-      </c>
-      <c r="N29">
-        <v>0.85874703218867343</v>
-      </c>
-      <c r="P29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29">
-        <v>84.454277286135692</v>
-      </c>
-      <c r="R29">
-        <v>1.0476986292151189</v>
-      </c>
-      <c r="S29">
-        <v>0.84454277286135704</v>
-      </c>
-      <c r="T29">
-        <v>0.81440031190079942</v>
-      </c>
-      <c r="V29" t="s">
-        <v>30</v>
-      </c>
-      <c r="W29">
-        <v>93.126843657817105</v>
-      </c>
-      <c r="X29">
-        <v>0.66988547287677103</v>
-      </c>
-      <c r="Y29">
-        <v>0.93126843657817115</v>
-      </c>
-      <c r="Z29">
-        <v>0.90916487100606691</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC29">
-        <v>90.707964601769916</v>
-      </c>
-      <c r="AD29">
-        <v>0.62121425278386655</v>
-      </c>
-      <c r="AE29">
-        <v>0.90707964601769908</v>
-      </c>
-      <c r="AF29">
-        <v>0.88409004849447981</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI29">
-        <v>90.771459960726304</v>
-      </c>
-      <c r="AJ29">
-        <v>0.58100498649163024</v>
-      </c>
-      <c r="AK29">
-        <v>0.90771459960726308</v>
-      </c>
-      <c r="AL29">
-        <v>0.88707516825904231</v>
-      </c>
-    </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30">
-        <v>94.100294985250741</v>
-      </c>
-      <c r="F30">
-        <v>0.1067436916598544</v>
-      </c>
-      <c r="G30">
-        <v>0.94100294985250732</v>
-      </c>
-      <c r="H30">
-        <v>0.93874532062402882</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30">
-        <v>86.351352520350517</v>
-      </c>
-      <c r="L30">
-        <v>0.80564350883884683</v>
-      </c>
-      <c r="M30">
-        <v>0.86351352520350522</v>
-      </c>
-      <c r="N30">
-        <v>0.84388392781625998</v>
-      </c>
-      <c r="P30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30">
-        <v>91.27232934540956</v>
-      </c>
-      <c r="R30">
-        <v>0.59137670392968855</v>
-      </c>
-      <c r="S30">
-        <v>0.91272329345409564</v>
-      </c>
-      <c r="T30">
-        <v>0.90169662691248575</v>
-      </c>
-      <c r="V30" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30">
-        <v>93.132380037889604</v>
-      </c>
-      <c r="X30">
-        <v>0.36327451579753017</v>
-      </c>
-      <c r="Y30">
-        <v>0.93132380037889606</v>
-      </c>
-      <c r="Z30">
-        <v>0.91383561734831376</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC30">
-        <v>89.815742350712384</v>
-      </c>
-      <c r="AD30">
-        <v>0.84994709839684324</v>
-      </c>
-      <c r="AE30">
-        <v>0.89815742350712369</v>
-      </c>
-      <c r="AF30">
-        <v>0.88054838218523201</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI30">
-        <v>86.537426794349429</v>
-      </c>
-      <c r="AJ30">
-        <v>0.73454121847369291</v>
-      </c>
-      <c r="AK30">
-        <v>0.86537426794349437</v>
-      </c>
-      <c r="AL30">
-        <v>0.84961535358506846</v>
-      </c>
-    </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31">
-        <v>80.766961651917399</v>
-      </c>
-      <c r="F31">
-        <v>0.89137490518314733</v>
-      </c>
-      <c r="G31">
-        <v>0.80766961651917413</v>
-      </c>
-      <c r="H31">
-        <v>0.8057352673987207</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31">
-        <v>80.39342900890145</v>
-      </c>
-      <c r="L31">
-        <v>0.93233227437017641</v>
-      </c>
-      <c r="M31">
-        <v>0.80393429008901462</v>
-      </c>
-      <c r="N31">
-        <v>0.78556152150546021</v>
-      </c>
-      <c r="P31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31">
-        <v>92.745611986262858</v>
-      </c>
-      <c r="R31">
-        <v>0.34905850905833802</v>
-      </c>
-      <c r="S31">
-        <v>0.92745611986262855</v>
-      </c>
-      <c r="T31">
-        <v>0.90535582530305392</v>
-      </c>
-      <c r="V31" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31">
-        <v>91.89880535298748</v>
-      </c>
-      <c r="X31">
-        <v>0.19693467218410179</v>
-      </c>
-      <c r="Y31">
-        <v>0.91898805352987478</v>
-      </c>
-      <c r="Z31">
-        <v>0.91799664566734263</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC31">
-        <v>88.534589399562293</v>
-      </c>
-      <c r="AD31">
-        <v>0.50368182661011351</v>
-      </c>
-      <c r="AE31">
-        <v>0.8853458939956228</v>
-      </c>
-      <c r="AF31">
-        <v>0.86655278448749884</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI31">
-        <v>88.53908770837117</v>
-      </c>
-      <c r="AJ31">
-        <v>0.40398420266233948</v>
-      </c>
-      <c r="AK31">
-        <v>0.88539087708371178</v>
-      </c>
-      <c r="AL31">
-        <v>0.87598775740082557</v>
-      </c>
-    </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32">
-        <v>85.801434268462529</v>
-      </c>
-      <c r="F32">
-        <v>0.48619804690236679</v>
-      </c>
-      <c r="G32">
-        <v>0.85801434268462518</v>
-      </c>
-      <c r="H32">
-        <v>0.83218912676207013</v>
-      </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32">
-        <v>89.691087293142672</v>
-      </c>
-      <c r="L32">
-        <v>0.31551206175155722</v>
-      </c>
-      <c r="M32">
-        <v>0.89691087293142679</v>
-      </c>
-      <c r="N32">
-        <v>0.8940500881530633</v>
-      </c>
-      <c r="P32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32">
-        <v>86.407754392339029</v>
-      </c>
-      <c r="R32">
-        <v>0.92722572197148312</v>
-      </c>
-      <c r="S32">
-        <v>0.86407754392339042</v>
-      </c>
-      <c r="T32">
-        <v>0.84294720722946936</v>
-      </c>
-      <c r="V32" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32">
-        <v>96.224188790560476</v>
-      </c>
-      <c r="X32">
-        <v>6.8009655712301748E-2</v>
-      </c>
-      <c r="Y32">
-        <v>0.96224188790560472</v>
-      </c>
-      <c r="Z32">
-        <v>0.9580037359184157</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC32">
-        <v>85.860950354241822</v>
-      </c>
-      <c r="AD32">
-        <v>0.3719328873247415</v>
-      </c>
-      <c r="AE32">
-        <v>0.85860950354241816</v>
-      </c>
-      <c r="AF32">
-        <v>0.84324620432676167</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI32">
-        <v>85.13274336283186</v>
-      </c>
-      <c r="AJ32">
-        <v>1.0587660098555529</v>
-      </c>
-      <c r="AK32">
-        <v>0.85132743362831853</v>
-      </c>
-      <c r="AL32">
-        <v>0.83583759830916171</v>
-      </c>
-    </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>79.768164084464402</v>
-      </c>
-      <c r="F33">
-        <v>0.91573325997241994</v>
-      </c>
-      <c r="G33">
-        <v>0.79768164084464399</v>
-      </c>
-      <c r="H33">
-        <v>0.76034362647426379</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33">
-        <v>88.676718656735787</v>
-      </c>
-      <c r="L33">
-        <v>0.39379884989031477</v>
-      </c>
-      <c r="M33">
-        <v>0.88676718656735787</v>
-      </c>
-      <c r="N33">
-        <v>0.87341089471161515</v>
-      </c>
-      <c r="P33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33">
-        <v>91.356932153392336</v>
-      </c>
-      <c r="R33">
-        <v>0.70171593537111221</v>
-      </c>
-      <c r="S33">
-        <v>0.91356932153392323</v>
-      </c>
-      <c r="T33">
-        <v>0.89060914653690548</v>
-      </c>
-      <c r="V33" t="s">
-        <v>34</v>
-      </c>
-      <c r="W33">
-        <v>94.888364086194514</v>
-      </c>
-      <c r="X33">
-        <v>0.16901854609240061</v>
-      </c>
-      <c r="Y33">
-        <v>0.94888364086194521</v>
-      </c>
-      <c r="Z33">
-        <v>0.94540421868423707</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC33">
-        <v>92.253133677626963</v>
-      </c>
-      <c r="AD33">
-        <v>0.21923568535810631</v>
-      </c>
-      <c r="AE33">
-        <v>0.92253133677626964</v>
-      </c>
-      <c r="AF33">
-        <v>0.91936899471167377</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI33">
-        <v>87.231982975631269</v>
-      </c>
-      <c r="AJ33">
-        <v>0.51505371269273359</v>
-      </c>
-      <c r="AK33">
-        <v>0.87231982975631284</v>
-      </c>
-      <c r="AL33">
-        <v>0.86264606196599214</v>
-      </c>
-    </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34">
-        <v>94.637150840405198</v>
-      </c>
-      <c r="F34">
-        <v>0.32663153217358248</v>
-      </c>
-      <c r="G34">
-        <v>0.94637150840405193</v>
-      </c>
-      <c r="H34">
-        <v>0.94473286702893911</v>
-      </c>
-      <c r="J34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34">
-        <v>81.887905604719762</v>
-      </c>
-      <c r="L34">
-        <v>4.9734461439975899</v>
-      </c>
-      <c r="M34">
-        <v>0.81887905604719757</v>
-      </c>
-      <c r="N34">
-        <v>0.79210163995473881</v>
-      </c>
-      <c r="P34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34">
-        <v>96.106194690265482</v>
-      </c>
-      <c r="R34">
-        <v>0.13023098494149579</v>
-      </c>
-      <c r="S34">
-        <v>0.9610619469026549</v>
-      </c>
-      <c r="T34">
-        <v>0.95974598854002946</v>
-      </c>
-      <c r="V34" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34">
-        <v>93.83757644962327</v>
-      </c>
-      <c r="X34">
-        <v>0.2366159550910796</v>
-      </c>
-      <c r="Y34">
-        <v>0.93837576449623261</v>
-      </c>
-      <c r="Z34">
-        <v>0.9298257719527554</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC34">
-        <v>86.168651977958291</v>
-      </c>
-      <c r="AD34">
-        <v>0.8603411246214856</v>
-      </c>
-      <c r="AE34">
-        <v>0.86168651977958288</v>
-      </c>
-      <c r="AF34">
-        <v>0.81700335995093487</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI34">
-        <v>98.145399181653829</v>
-      </c>
-      <c r="AJ34">
-        <v>3.7616359868859681E-2</v>
-      </c>
-      <c r="AK34">
-        <v>0.98145399181653814</v>
-      </c>
-      <c r="AL34">
-        <v>0.98143158962599342</v>
-      </c>
-    </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>98.908554572271385</v>
-      </c>
-      <c r="F35">
-        <v>1.7700900122435689E-2</v>
-      </c>
-      <c r="G35">
-        <v>0.98908554572271379</v>
-      </c>
-      <c r="H35">
-        <v>0.98895977248487943</v>
-      </c>
-      <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35">
-        <v>95.634218289085538</v>
-      </c>
-      <c r="L35">
-        <v>8.8110985557972171E-2</v>
-      </c>
-      <c r="M35">
-        <v>0.95634218289085537</v>
-      </c>
-      <c r="N35">
-        <v>0.95694949434425403</v>
-      </c>
-      <c r="P35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35">
-        <v>78.823432728656826</v>
-      </c>
-      <c r="R35">
-        <v>4.7691618657688144</v>
-      </c>
-      <c r="S35">
-        <v>0.78823432728656828</v>
-      </c>
-      <c r="T35">
-        <v>0.74428358102460368</v>
-      </c>
-      <c r="V35" t="s">
-        <v>36</v>
-      </c>
-      <c r="W35">
-        <v>89.722834972620873</v>
-      </c>
-      <c r="X35">
-        <v>0.80336973788262489</v>
-      </c>
-      <c r="Y35">
-        <v>0.89722834972620868</v>
-      </c>
-      <c r="Z35">
-        <v>0.87453730545484398</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC35">
-        <v>89.105788112353906</v>
-      </c>
-      <c r="AD35">
-        <v>0.50528653759327091</v>
-      </c>
-      <c r="AE35">
-        <v>0.89105788112353912</v>
-      </c>
-      <c r="AF35">
-        <v>0.8900492450907237</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI35">
-        <v>88.79315565013539</v>
-      </c>
-      <c r="AJ35">
-        <v>1.1047108913193999</v>
-      </c>
-      <c r="AK35">
-        <v>0.8879315565013538</v>
-      </c>
-      <c r="AL35">
-        <v>0.86786200136129366</v>
-      </c>
-    </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>96.961651917404126</v>
-      </c>
-      <c r="F36">
-        <v>0.16261391086118351</v>
-      </c>
-      <c r="G36">
-        <v>0.96961651917404124</v>
-      </c>
-      <c r="H36">
-        <v>0.96924361262827596</v>
-      </c>
-      <c r="J36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36">
-        <v>100</v>
-      </c>
-      <c r="L36">
-        <v>2.282863895687548E-3</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36">
-        <v>91.769911504424769</v>
-      </c>
-      <c r="R36">
-        <v>0.39694236123960608</v>
-      </c>
-      <c r="S36">
-        <v>0.91769911504424795</v>
-      </c>
-      <c r="T36">
-        <v>0.91473940472844961</v>
-      </c>
-      <c r="V36" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36">
-        <v>94.955752212389385</v>
-      </c>
-      <c r="X36">
-        <v>0.40360931603729122</v>
-      </c>
-      <c r="Y36">
-        <v>0.94955752212389366</v>
-      </c>
-      <c r="Z36">
-        <v>0.94790115217988657</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC36">
-        <v>97.610619469026545</v>
-      </c>
-      <c r="AD36">
-        <v>0.1418693920607898</v>
-      </c>
-      <c r="AE36">
-        <v>0.97610619469026561</v>
-      </c>
-      <c r="AF36">
-        <v>0.97561771094620142</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI36">
-        <v>98.377581120943958</v>
-      </c>
-      <c r="AJ36">
-        <v>8.3779928493981831E-2</v>
-      </c>
-      <c r="AK36">
-        <v>0.98377581120943947</v>
-      </c>
-      <c r="AL36">
-        <v>0.98354008959267014</v>
-      </c>
-    </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>87.957767800759513</v>
-      </c>
-      <c r="F37">
-        <v>0.60414140837575114</v>
-      </c>
-      <c r="G37">
-        <v>0.87957767800759523</v>
-      </c>
-      <c r="H37">
-        <v>0.85601260597395323</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37">
-        <v>81.476223842766814</v>
-      </c>
-      <c r="L37">
-        <v>1.0455975360042269</v>
-      </c>
-      <c r="M37">
-        <v>0.81476223842766804</v>
-      </c>
-      <c r="N37">
-        <v>0.78055068244686743</v>
-      </c>
-      <c r="P37" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q37">
-        <v>97.052396647029823</v>
-      </c>
-      <c r="R37">
-        <v>5.7251761081853772E-2</v>
-      </c>
-      <c r="S37">
-        <v>0.97052396647029815</v>
-      </c>
-      <c r="T37">
-        <v>0.97010429025886746</v>
-      </c>
-      <c r="V37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37">
-        <v>87.227138643067846</v>
-      </c>
-      <c r="X37">
-        <v>0.43426969559421119</v>
-      </c>
-      <c r="Y37">
-        <v>0.87227138643067847</v>
-      </c>
-      <c r="Z37">
-        <v>0.85106575613065538</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC37">
-        <v>99.705014749262531</v>
-      </c>
-      <c r="AD37">
-        <v>2.1924910797299149E-2</v>
-      </c>
-      <c r="AE37">
-        <v>0.99705014749262533</v>
-      </c>
-      <c r="AF37">
-        <v>0.99704490131184487</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI37">
-        <v>93.210581406413553</v>
-      </c>
-      <c r="AJ37">
-        <v>0.31496524606014448</v>
-      </c>
-      <c r="AK37">
-        <v>0.93210581406413551</v>
-      </c>
-      <c r="AL37">
-        <v>0.92734834342911387</v>
-      </c>
-    </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38">
-        <v>87.964601769911496</v>
-      </c>
-      <c r="F38">
-        <v>1.600314469020456</v>
-      </c>
-      <c r="G38">
-        <v>0.87964601769911499</v>
-      </c>
-      <c r="H38">
-        <v>0.86230453719684697</v>
-      </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38">
-        <v>80.088495575221231</v>
-      </c>
-      <c r="L38">
-        <v>1.6518136983960621</v>
-      </c>
-      <c r="M38">
-        <v>0.80088495575221241</v>
-      </c>
-      <c r="N38">
-        <v>0.76021694419532115</v>
-      </c>
-      <c r="P38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38">
-        <v>79.129923269232421</v>
-      </c>
-      <c r="R38">
-        <v>1.088248796185479</v>
-      </c>
-      <c r="S38">
-        <v>0.79129923269232427</v>
-      </c>
-      <c r="T38">
-        <v>0.75681544536793122</v>
-      </c>
-      <c r="V38" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38">
-        <v>92.448377581120937</v>
-      </c>
-      <c r="X38">
-        <v>1.7054228275241221</v>
-      </c>
-      <c r="Y38">
-        <v>0.92448377581120944</v>
-      </c>
-      <c r="Z38">
-        <v>0.9014268326010072</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC38">
-        <v>94.306784660766965</v>
-      </c>
-      <c r="AD38">
-        <v>0.25628426034134011</v>
-      </c>
-      <c r="AE38">
-        <v>0.94306784660766962</v>
-      </c>
-      <c r="AF38">
-        <v>0.93835650781525093</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI38">
-        <v>83.274336283185832</v>
-      </c>
-      <c r="AJ38">
-        <v>2.4112763877663039</v>
-      </c>
-      <c r="AK38">
-        <v>0.83274336283185835</v>
-      </c>
-      <c r="AL38">
-        <v>0.80602141268261784</v>
-      </c>
-    </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39">
-        <v>95.340444121488943</v>
-      </c>
-      <c r="F39">
-        <v>0.1305525198567834</v>
-      </c>
-      <c r="G39">
-        <v>0.95340444121488943</v>
-      </c>
-      <c r="H39">
-        <v>0.94510480466377478</v>
-      </c>
-      <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39">
-        <v>96.172631251135385</v>
-      </c>
-      <c r="L39">
-        <v>8.4042446237316243E-2</v>
-      </c>
-      <c r="M39">
-        <v>0.96172631251135388</v>
-      </c>
-      <c r="N39">
-        <v>0.96093985239747026</v>
-      </c>
-      <c r="P39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39">
-        <v>73.126843657817105</v>
-      </c>
-      <c r="R39">
-        <v>12.251119971834211</v>
-      </c>
-      <c r="S39">
-        <v>0.73126843657817109</v>
-      </c>
-      <c r="T39">
-        <v>0.67089241355079543</v>
-      </c>
-      <c r="V39" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39">
-        <v>95.25800396197198</v>
-      </c>
-      <c r="X39">
-        <v>0.18809997442406801</v>
-      </c>
-      <c r="Y39">
-        <v>0.95258003961971993</v>
-      </c>
-      <c r="Z39">
-        <v>0.95146777715115527</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC39">
-        <v>96.489675516224196</v>
-      </c>
-      <c r="AD39">
-        <v>0.22652775328417471</v>
-      </c>
-      <c r="AE39">
-        <v>0.96489675516224194</v>
-      </c>
-      <c r="AF39">
-        <v>0.96150382495484144</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI39">
-        <v>93.923303834808252</v>
-      </c>
-      <c r="AJ39">
-        <v>0.50101537608260638</v>
-      </c>
-      <c r="AK39">
-        <v>0.93923303834808247</v>
-      </c>
-      <c r="AL39">
-        <v>0.9192442599569961</v>
-      </c>
-    </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40">
-        <v>96.725663716814168</v>
-      </c>
-      <c r="F40">
-        <v>6.4439750023681561E-2</v>
-      </c>
-      <c r="G40">
-        <v>0.96725663716814159</v>
-      </c>
-      <c r="H40">
-        <v>0.96555993327094214</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40">
-        <v>86.084654711545937</v>
-      </c>
-      <c r="L40">
-        <v>0.35822826314284462</v>
-      </c>
-      <c r="M40">
-        <v>0.86084654711545949</v>
-      </c>
-      <c r="N40">
-        <v>0.85966384246470073</v>
-      </c>
-      <c r="P40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q40">
-        <v>92.418879056047189</v>
-      </c>
-      <c r="R40">
-        <v>0.15801669478432859</v>
-      </c>
-      <c r="S40">
-        <v>0.92418879056047198</v>
-      </c>
-      <c r="T40">
-        <v>0.90215232468261808</v>
-      </c>
-      <c r="V40" t="s">
-        <v>41</v>
-      </c>
-      <c r="W40">
-        <v>92.89301810569296</v>
-      </c>
-      <c r="X40">
-        <v>0.17795892789203571</v>
-      </c>
-      <c r="Y40">
-        <v>0.92893018105692948</v>
-      </c>
-      <c r="Z40">
-        <v>0.91536497128868888</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC40">
-        <v>88.099205010423958</v>
-      </c>
-      <c r="AD40">
-        <v>0.48324630747647562</v>
-      </c>
-      <c r="AE40">
-        <v>0.88099205010423964</v>
-      </c>
-      <c r="AF40">
-        <v>0.875429782055682</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI40">
-        <v>90.701649668249729</v>
-      </c>
-      <c r="AJ40">
-        <v>0.38269575803497918</v>
-      </c>
-      <c r="AK40">
-        <v>0.90701649668249718</v>
-      </c>
-      <c r="AL40">
-        <v>0.90633555657697884</v>
-      </c>
-    </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>97.736745127553007</v>
-      </c>
-      <c r="F41">
-        <v>4.0512609020755888E-2</v>
-      </c>
-      <c r="G41">
-        <v>0.97736745127553015</v>
-      </c>
-      <c r="H41">
-        <v>0.97722554946314766</v>
-      </c>
-      <c r="J41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41">
-        <v>8.9503558210258431E-4</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41">
-        <v>95.78171091445428</v>
-      </c>
-      <c r="R41">
-        <v>9.5767335255183605E-2</v>
-      </c>
-      <c r="S41">
-        <v>0.95781710914454288</v>
-      </c>
-      <c r="T41">
-        <v>0.95696777034586655</v>
-      </c>
-      <c r="V41" t="s">
-        <v>42</v>
-      </c>
-      <c r="W41">
-        <v>100</v>
-      </c>
-      <c r="X41">
-        <v>6.5778662110415869E-3</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC41">
-        <v>98.141592920353986</v>
-      </c>
-      <c r="AD41">
-        <v>3.6895057975738152E-2</v>
-      </c>
-      <c r="AE41">
-        <v>0.98141592920353982</v>
-      </c>
-      <c r="AF41">
-        <v>0.98103968259179397</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI41">
-        <v>97.653958944281527</v>
-      </c>
-      <c r="AJ41">
-        <v>8.0740688511691625E-2</v>
-      </c>
-      <c r="AK41">
-        <v>0.97653958944281527</v>
-      </c>
-      <c r="AL41">
-        <v>0.97601776381411054</v>
-      </c>
-    </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42">
-        <v>92.581250702860757</v>
-      </c>
-      <c r="F42">
-        <v>0.34651040079558199</v>
-      </c>
-      <c r="G42">
-        <v>0.92581250702860751</v>
-      </c>
-      <c r="H42">
-        <v>0.92349063907982065</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42">
-        <v>96.763639823873902</v>
-      </c>
-      <c r="L42">
-        <v>0.15022042621116191</v>
-      </c>
-      <c r="M42">
-        <v>0.96763639823873915</v>
-      </c>
-      <c r="N42">
-        <v>0.96738945135408072</v>
-      </c>
-      <c r="P42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42">
-        <v>92.49638837706209</v>
-      </c>
-      <c r="R42">
-        <v>0.26901806988611099</v>
-      </c>
-      <c r="S42">
-        <v>0.92496388377062078</v>
-      </c>
-      <c r="T42">
-        <v>0.92225758453154005</v>
-      </c>
-      <c r="V42" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42">
-        <v>90.708656649278979</v>
-      </c>
-      <c r="X42">
-        <v>1.234433749030575</v>
-      </c>
-      <c r="Y42">
-        <v>0.90708656649278974</v>
-      </c>
-      <c r="Z42">
-        <v>0.89744159106189547</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC42">
-        <v>84.778761061946895</v>
-      </c>
-      <c r="AD42">
-        <v>4.4912871485313053</v>
-      </c>
-      <c r="AE42">
-        <v>0.84778761061946906</v>
-      </c>
-      <c r="AF42">
-        <v>0.81382050391464988</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI42">
-        <v>98.34808259587021</v>
-      </c>
-      <c r="AJ42">
-        <v>9.4844624378093018E-2</v>
-      </c>
-      <c r="AK42">
-        <v>0.98348082595870212</v>
-      </c>
-      <c r="AL42">
-        <v>0.9832320349112843</v>
-      </c>
-    </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43">
-        <v>88.033287485185866</v>
-      </c>
-      <c r="F43">
-        <v>0.51624862598893984</v>
-      </c>
-      <c r="G43">
-        <v>0.88033287485185863</v>
-      </c>
-      <c r="H43">
-        <v>0.86378856835223305</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43">
-        <v>85.034645628422396</v>
-      </c>
-      <c r="L43">
-        <v>1.4656062254600219</v>
-      </c>
-      <c r="M43">
-        <v>0.85034645628422401</v>
-      </c>
-      <c r="N43">
-        <v>0.82839254040429178</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43">
-        <v>89.262536873156336</v>
-      </c>
-      <c r="R43">
-        <v>0.56620777579592008</v>
-      </c>
-      <c r="S43">
-        <v>0.89262536873156351</v>
-      </c>
-      <c r="T43">
-        <v>0.87164271847215813</v>
-      </c>
-      <c r="V43" t="s">
-        <v>44</v>
-      </c>
-      <c r="W43">
-        <v>91.887905604719762</v>
-      </c>
-      <c r="X43">
-        <v>0.85510990699976897</v>
-      </c>
-      <c r="Y43">
-        <v>0.91887905604719755</v>
-      </c>
-      <c r="Z43">
-        <v>0.89427701425988604</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC43">
-        <v>88.81322502789817</v>
-      </c>
-      <c r="AD43">
-        <v>0.73722497121161568</v>
-      </c>
-      <c r="AE43">
-        <v>0.88813225027898157</v>
-      </c>
-      <c r="AF43">
-        <v>0.86298517878378322</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI43">
-        <v>82.598292372771397</v>
-      </c>
-      <c r="AJ43">
-        <v>4.4630541979750351</v>
-      </c>
-      <c r="AK43">
-        <v>0.82598292372771387</v>
-      </c>
-      <c r="AL43">
-        <v>0.79398942305143572</v>
-      </c>
-    </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44">
-        <v>82.772861356932168</v>
-      </c>
-      <c r="F44">
-        <v>1.325218200513389</v>
-      </c>
-      <c r="G44">
-        <v>0.82772861356932148</v>
-      </c>
-      <c r="H44">
-        <v>0.81320573030422794</v>
-      </c>
-      <c r="J44" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44">
-        <v>78.908554572271385</v>
-      </c>
-      <c r="L44">
-        <v>2.042355273220593</v>
-      </c>
-      <c r="M44">
-        <v>0.78908554572271383</v>
-      </c>
-      <c r="N44">
-        <v>0.76869036345708397</v>
-      </c>
-      <c r="P44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44">
-        <v>71.10978468671874</v>
-      </c>
-      <c r="R44">
-        <v>4.1997399722938944</v>
-      </c>
-      <c r="S44">
-        <v>0.71109784686718736</v>
-      </c>
-      <c r="T44">
-        <v>0.66979736625070629</v>
-      </c>
-      <c r="V44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W44">
-        <v>80.442477876106196</v>
-      </c>
-      <c r="X44">
-        <v>4.2819673321206206</v>
-      </c>
-      <c r="Y44">
-        <v>0.80442477876106189</v>
-      </c>
-      <c r="Z44">
-        <v>0.78166183171972792</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC44">
-        <v>87.320651562729779</v>
-      </c>
-      <c r="AD44">
-        <v>1.097216889235876</v>
-      </c>
-      <c r="AE44">
-        <v>0.87320651562729767</v>
-      </c>
-      <c r="AF44">
-        <v>0.84673464737891246</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI44">
-        <v>82.123893805309734</v>
-      </c>
-      <c r="AJ44">
-        <v>1.5490088459402009</v>
-      </c>
-      <c r="AK44">
-        <v>0.82123893805309733</v>
-      </c>
-      <c r="AL44">
-        <v>0.77486099924066709</v>
-      </c>
-    </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
-        <v>86.51917404129793</v>
-      </c>
-      <c r="F45">
-        <v>0.7232832041683499</v>
-      </c>
-      <c r="G45">
-        <v>0.86519174041297942</v>
-      </c>
-      <c r="H45">
-        <v>0.86902178141093389</v>
-      </c>
-      <c r="J45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45">
-        <v>83.279872663258331</v>
-      </c>
-      <c r="L45">
-        <v>0.94422371333900279</v>
-      </c>
-      <c r="M45">
-        <v>0.83279872663258325</v>
-      </c>
-      <c r="N45">
-        <v>0.83261475015691055</v>
-      </c>
-      <c r="P45" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q45">
-        <v>88.391422071125177</v>
-      </c>
-      <c r="R45">
-        <v>0.73365550423934756</v>
-      </c>
-      <c r="S45">
-        <v>0.88391422071125181</v>
-      </c>
-      <c r="T45">
-        <v>0.87447269646819448</v>
-      </c>
-      <c r="V45" t="s">
-        <v>46</v>
-      </c>
-      <c r="W45">
-        <v>90.863761797247392</v>
-      </c>
-      <c r="X45">
-        <v>0.37302184138308869</v>
-      </c>
-      <c r="Y45">
-        <v>0.90863761797247378</v>
-      </c>
-      <c r="Z45">
-        <v>0.90152566527036859</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC45">
-        <v>70.985216135087668</v>
-      </c>
-      <c r="AD45">
-        <v>10.946313585353661</v>
-      </c>
-      <c r="AE45">
-        <v>0.7098521613508767</v>
-      </c>
-      <c r="AF45">
-        <v>0.64366207425049771</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI45">
-        <v>84.41223539996021</v>
-      </c>
-      <c r="AJ45">
-        <v>0.79786119583043635</v>
-      </c>
-      <c r="AK45">
-        <v>0.844122353999602</v>
-      </c>
-      <c r="AL45">
-        <v>0.83601412044662382</v>
-      </c>
-    </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46">
-        <v>98.21114369501467</v>
-      </c>
-      <c r="F46">
-        <v>8.4531415404502402E-2</v>
-      </c>
-      <c r="G46">
-        <v>0.98211143695014658</v>
-      </c>
-      <c r="H46">
-        <v>0.98191649086691779</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46">
-        <v>91.537037517625578</v>
-      </c>
-      <c r="L46">
-        <v>0.1548770766917717</v>
-      </c>
-      <c r="M46">
-        <v>0.91537037517625586</v>
-      </c>
-      <c r="N46">
-        <v>0.89898605650105645</v>
-      </c>
-      <c r="P46" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q46">
-        <v>92.772861356932154</v>
-      </c>
-      <c r="R46">
-        <v>0.45289691665668769</v>
-      </c>
-      <c r="S46">
-        <v>0.92772861356932146</v>
-      </c>
-      <c r="T46">
-        <v>0.92094635986380458</v>
-      </c>
-      <c r="V46" t="s">
-        <v>47</v>
-      </c>
-      <c r="W46">
-        <v>91.061946902654867</v>
-      </c>
-      <c r="X46">
-        <v>0.45535570146529958</v>
-      </c>
-      <c r="Y46">
-        <v>0.91061946902654856</v>
-      </c>
-      <c r="Z46">
-        <v>0.90496458411476188</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC46">
-        <v>94.719764011799413</v>
-      </c>
-      <c r="AD46">
-        <v>0.1297805764457301</v>
-      </c>
-      <c r="AE46">
-        <v>0.94719764011799401</v>
-      </c>
-      <c r="AF46">
-        <v>0.94428877312793258</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI46">
-        <v>98.318584070796462</v>
-      </c>
-      <c r="AJ46">
-        <v>3.8909588924509589E-2</v>
-      </c>
-      <c r="AK46">
-        <v>0.98318584070796466</v>
-      </c>
-      <c r="AL46">
-        <v>0.98317524697617498</v>
-      </c>
-    </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47">
-        <v>93.362831858407077</v>
-      </c>
-      <c r="F47">
-        <v>0.86209243069143215</v>
-      </c>
-      <c r="G47">
-        <v>0.9336283185840708</v>
-      </c>
-      <c r="H47">
-        <v>0.92388399255192222</v>
-      </c>
-      <c r="J47" t="s">
-        <v>48</v>
-      </c>
-      <c r="K47">
-        <v>97.16814159292035</v>
-      </c>
-      <c r="L47">
-        <v>0.12907387587415539</v>
-      </c>
-      <c r="M47">
-        <v>0.97168141592920354</v>
-      </c>
-      <c r="N47">
-        <v>0.97122362571130749</v>
-      </c>
-      <c r="P47" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q47">
-        <v>99.442815249266872</v>
-      </c>
-      <c r="R47">
-        <v>1.6701231304411542E-2</v>
-      </c>
-      <c r="S47">
-        <v>0.99442815249266869</v>
-      </c>
-      <c r="T47">
-        <v>0.99440373598299581</v>
-      </c>
-      <c r="V47" t="s">
-        <v>48</v>
-      </c>
-      <c r="W47">
-        <v>88.042284102803663</v>
-      </c>
-      <c r="X47">
-        <v>1.9171926822939671</v>
-      </c>
-      <c r="Y47">
-        <v>0.88042284102803658</v>
-      </c>
-      <c r="Z47">
-        <v>0.85460469229271752</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC47">
-        <v>96.902654867256643</v>
-      </c>
-      <c r="AD47">
-        <v>8.828745299593295E-2</v>
-      </c>
-      <c r="AE47">
-        <v>0.96902654867256643</v>
-      </c>
-      <c r="AF47">
-        <v>0.96826151511015601</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI47">
-        <v>98.112094395280238</v>
-      </c>
-      <c r="AJ47">
-        <v>9.4380893962509538E-2</v>
-      </c>
-      <c r="AK47">
-        <v>0.98112094395280247</v>
-      </c>
-      <c r="AL47">
-        <v>0.98019664333644452</v>
-      </c>
-    </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48">
-        <v>98.445747800586517</v>
-      </c>
-      <c r="F48">
-        <v>0.1074753643123862</v>
-      </c>
-      <c r="G48">
-        <v>0.98445747800586503</v>
-      </c>
-      <c r="H48">
-        <v>0.98392324671437148</v>
-      </c>
-      <c r="J48" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q48">
-        <v>93.126843657817105</v>
-      </c>
-      <c r="R48">
-        <v>0.67858942842467496</v>
-      </c>
-      <c r="S48">
-        <v>0.93126843657817115</v>
-      </c>
-      <c r="T48">
-        <v>0.90829273614555406</v>
-      </c>
-      <c r="V48" t="s">
-        <v>49</v>
-      </c>
-      <c r="W48">
-        <v>93.126843657817105</v>
-      </c>
-      <c r="X48">
-        <v>1.198403643010953</v>
-      </c>
-      <c r="Y48">
-        <v>0.93126843657817115</v>
-      </c>
-      <c r="Z48">
-        <v>0.90829273614555406</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC48">
-        <v>100</v>
-      </c>
-      <c r="AD48">
-        <v>2.8554173174275481E-3</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI48">
-        <v>98.826979472140764</v>
-      </c>
-      <c r="AJ48">
-        <v>4.5784994269511492E-2</v>
-      </c>
-      <c r="AK48">
-        <v>0.98826979472140764</v>
-      </c>
-      <c r="AL48">
-        <v>0.98810915698961244</v>
-      </c>
-    </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49">
-        <f>AVERAGE(E4:E48)</f>
-        <v>86.438367882844048</v>
-      </c>
-      <c r="J49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49">
-        <f>AVERAGE(K4:K48)</f>
-        <v>86.502982051940094</v>
-      </c>
-      <c r="P49" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49">
-        <f>AVERAGE(Q4:Q48)</f>
-        <v>87.268188594480335</v>
-      </c>
-      <c r="V49" t="s">
-        <v>50</v>
-      </c>
-      <c r="W49">
-        <f>AVERAGE(W4:W48)</f>
-        <v>89.295505247546373</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC49">
-        <f>AVERAGE(AC4:AC48)</f>
-        <v>88.943560642104728</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI49">
-        <f>AVERAGE(AI4:AI48)</f>
-        <v>88.981186880701571</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23127,11 +23127,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -23140,6 +23135,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24232,6 +24232,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -24240,11 +24245,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Results/summary_deLDS_5_fold_eva.xlsx
+++ b/Results/summary_deLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B3C9D0-ACD0-4A99-82FD-EE1A73F7B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807CEC4-8AD3-4234-96D6-359C841071C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="67">
   <si>
     <t>Identifier</t>
   </si>
@@ -253,16 +251,19 @@
     <t>9; 24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,7 +276,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,7 +351,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,16 +653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812FEE00-37CD-4574-A5FD-C310DAF701EF}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -745,7 +746,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -800,7 +801,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -853,7 +854,7 @@
         <v>78.277808734107865</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -906,7 +907,7 @@
         <v>60.264524976406904</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -953,7 +954,7 @@
         <v>75.26324892756729</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>57.291321993395329</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>79.785343764156437</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>76.317947311436654</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>69.029518820101742</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>69.893334814289034</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>90.395860843891569</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>91.164542255988948</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>89.897183668401183</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>88.170669936607496</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>83.875257401417997</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>90.592271507422055</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>80.036110705999434</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>74.653435516446152</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>86.973352565465078</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>73.773521175258765</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>72.809715999351482</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>66.958862992069086</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>87.353028081574934</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>78.542227366307671</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>94.972772462584018</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>88.915262572797999</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:20">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>87.58571916549279</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:20">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>92.282690652554024</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:20">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>78.631727439603424</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:20">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>83.149675030348476</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:20">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>88.651916301980719</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:20">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>88.977412391637387</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:20">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>88.646902843499149</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:20">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>94.069302341721482</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:20">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>78.783473634472372</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:20">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>85.307716149220184</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:20">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>89.847357880326129</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:20">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>86.885775627731263</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:20">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>98.487658949112543</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:20">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>94.380589468614772</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:20">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>82.529167667392912</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:20">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>68.092085332951442</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:20">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>84.110616059208709</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:20">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>97.336974163751648</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:20">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>90.357296908914194</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:20">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>93.752827810173386</v>
       </c>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>85.284382506192415</v>
       </c>
     </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20">
       <c r="D51" t="s">
         <v>51</v>
       </c>
@@ -2979,7 +2980,7 @@
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:20">
       <c r="D52" t="s">
         <v>57</v>
       </c>
@@ -3020,7 +3021,7 @@
       </c>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:20">
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:20">
       <c r="D54" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>0.673563685042741</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20">
       <c r="D55" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>0.54571678934963441</v>
       </c>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:20">
       <c r="D56" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>0.57612619367300533</v>
       </c>
     </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:20">
       <c r="D57" t="s">
         <v>8</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>0.45075447762473381</v>
       </c>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:20">
       <c r="D58" t="s">
         <v>9</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>0.74934757088176118</v>
       </c>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:20">
       <c r="D59" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>0.74239849886558218</v>
       </c>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:20">
       <c r="D60" t="s">
         <v>11</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>0.68631709952295172</v>
       </c>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:20">
       <c r="D61" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>0.90338331375971492</v>
       </c>
     </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:20">
       <c r="D62" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>0.88478918158007858</v>
       </c>
     </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:20">
       <c r="D63" t="s">
         <v>14</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0.90470054524528065</v>
       </c>
     </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:20">
       <c r="D64" t="s">
         <v>15</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>0.79409410019182602</v>
       </c>
     </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:20">
       <c r="D65" t="s">
         <v>16</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>0.90583190147716552</v>
       </c>
     </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:20">
       <c r="D66" t="s">
         <v>17</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0.88852378163320078</v>
       </c>
     </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:20">
       <c r="D67" t="s">
         <v>18</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>0.81762386528914666</v>
       </c>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:20">
       <c r="D68" t="s">
         <v>19</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>0.76661878921218896</v>
       </c>
     </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:20">
       <c r="D69" t="s">
         <v>20</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>0.87288232573111524</v>
       </c>
     </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:20">
       <c r="D70" t="s">
         <v>21</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>0.85601025206481762</v>
       </c>
     </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:20">
       <c r="D71" t="s">
         <v>22</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>0.87148330555034659</v>
       </c>
     </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20">
       <c r="D72" t="s">
         <v>23</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>0.58322239432077683</v>
       </c>
     </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:20">
       <c r="D73" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0.98962945638887445</v>
       </c>
     </row>
-    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:20">
       <c r="D74" t="s">
         <v>25</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>0.80924735977806372</v>
       </c>
     </row>
-    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:20">
       <c r="D75" t="s">
         <v>26</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>0.83132813334833633</v>
       </c>
     </row>
-    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:20">
       <c r="D76" t="s">
         <v>27</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>0.82871675012230939</v>
       </c>
     </row>
-    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:20">
       <c r="D77" t="s">
         <v>28</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>0.92932783229839389</v>
       </c>
     </row>
-    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:20">
       <c r="D78" t="s">
         <v>29</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>0.89053461699809822</v>
       </c>
     </row>
-    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:20">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>0.86814238783002262</v>
       </c>
     </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20">
       <c r="D80" t="s">
         <v>31</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>0.91834543910410926</v>
       </c>
     </row>
-    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:20">
       <c r="D81" t="s">
         <v>32</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>0.71555827754060541</v>
       </c>
     </row>
-    <row r="82" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:20">
       <c r="D82" t="s">
         <v>33</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>0.90011767905346363</v>
       </c>
     </row>
-    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:20">
       <c r="D83" t="s">
         <v>34</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>0.83298609934422463</v>
       </c>
     </row>
-    <row r="84" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:20">
       <c r="D84" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>0.7628512066444364</v>
       </c>
     </row>
-    <row r="85" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:20">
       <c r="D85" t="s">
         <v>36</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>0.93994239928230683</v>
       </c>
     </row>
-    <row r="86" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:20">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>0.96274576910066012</v>
       </c>
     </row>
-    <row r="87" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:20">
       <c r="D87" t="s">
         <v>38</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>0.74961658927014929</v>
       </c>
     </row>
-    <row r="88" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:20">
       <c r="D88" t="s">
         <v>39</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>0.78139282417635525</v>
       </c>
     </row>
-    <row r="89" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:20">
       <c r="D89" t="s">
         <v>40</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>0.89534005612633349</v>
       </c>
     </row>
-    <row r="90" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:20">
       <c r="D90" t="s">
         <v>41</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>0.95383656260824257</v>
       </c>
     </row>
-    <row r="91" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:20">
       <c r="D91" t="s">
         <v>42</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>0.92593625249762046</v>
       </c>
     </row>
-    <row r="92" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:20">
       <c r="D92" t="s">
         <v>43</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>0.93303377553150857</v>
       </c>
     </row>
-    <row r="93" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:20">
       <c r="D93" t="s">
         <v>44</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>0.81045018480141606</v>
       </c>
     </row>
-    <row r="94" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:20">
       <c r="D94" t="s">
         <v>45</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>0.71529233801977909</v>
       </c>
     </row>
-    <row r="95" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:20">
       <c r="D95" t="s">
         <v>46</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>0.86976688410419156</v>
       </c>
     </row>
-    <row r="96" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:20">
       <c r="D96" t="s">
         <v>47</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>0.88976199187375082</v>
       </c>
     </row>
-    <row r="97" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:20">
       <c r="D97" t="s">
         <v>48</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>0.95219337235262902</v>
       </c>
     </row>
-    <row r="98" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:20">
       <c r="D98" t="s">
         <v>49</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>0.99031123802047794</v>
       </c>
     </row>
-    <row r="99" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:20">
       <c r="D99" t="s">
         <v>50</v>
       </c>
@@ -5228,18 +5229,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D036BE2-578A-434B-9121-F99339399A5A}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -5301,7 +5302,7 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -5389,7 +5390,7 @@
       </c>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>0.7842335501746327</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>0.92523548971463188</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>0.76928694198847647</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>0.79726467218517139</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>0.79185753313206164</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>0.93918996466152738</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>0.89112260167220436</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>0.72352238667429702</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>0.81202673448023965</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>0.96542244854326797</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>0.86981967275741956</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>0.87532115350516049</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>0.78733170114427531</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>0.88409700444385941</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>0.63586445446236872</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>0.7461044348501128</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>0.80208130352126139</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>0.85276985604602074</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>0.87226158315020808</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>0.76169169943392034</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>0.82482829669231283</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>0.84762251378981335</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>0.96000038846420532</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>0.87395417324459856</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>0.84966237380577214</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>0.61986257784963339</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>0.89386947866848898</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>0.76349408660702123</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>0.61533941631855571</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>0.80126108017334019</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>0.84636139883692896</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>0.97423948025072171</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>0.93382412598588638</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>0.73438525527884646</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>0.92594843814634531</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>0.96416542234368163</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>0.94176434062563352</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>0.5426455113050862</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>0.870085721921525</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>0.58006836861409483</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>0.82199250187118245</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>0.88438723936071639</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>0.92390515536626849</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>0.99557292265256869</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:38">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -9683,6 +9684,94 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>85.395048592308086</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38">
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F4:F49)</f>
+        <v>2.0544310378820634</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(L4:L49)</f>
+        <v>1.007915020954177</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50">
+        <f>AVERAGE(R4:R49)</f>
+        <v>1.2267856724346606</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X50">
+        <f>AVERAGE(X4:X49)</f>
+        <v>1.8378483201753018</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50">
+        <f>AVERAGE(AD4:AD49)</f>
+        <v>1.7222489200460693</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50">
+        <f>AVERAGE(AJ4:AJ49)</f>
+        <v>1.3318038433499828</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H4:H50)</f>
+        <v>0.82845202973654131</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(N4:N50)</f>
+        <v>0.86069224978674452</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(T4:T50)</f>
+        <v>0.82293062014396945</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51">
+        <f>AVERAGE(Z4:Z50)</f>
+        <v>0.81086951476132885</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51">
+        <f>AVERAGE(AF4:AF50)</f>
+        <v>0.81530560137908425</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51">
+        <f>AVERAGE(AL4:AL50)</f>
+        <v>0.83279434343809655</v>
       </c>
     </row>
   </sheetData>
@@ -9708,18 +9797,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -9781,7 +9870,7 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -9869,7 +9958,7 @@
       </c>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -9969,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -10067,7 +10156,7 @@
         <v>0.66582138213710307</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -10165,7 +10254,7 @@
         <v>0.68394458778148859</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10346,7 @@
         <v>0.65378920534341312</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -10349,7 +10438,7 @@
         <v>0.879545014720993</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -10441,7 +10530,7 @@
         <v>0.95538835664884447</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -10533,7 +10622,7 @@
         <v>0.78811225131026941</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -10625,7 +10714,7 @@
         <v>0.71637610734373147</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -10717,7 +10806,7 @@
         <v>0.97430694569694365</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -10809,7 +10898,7 @@
         <v>0.90476547447161937</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -10901,7 +10990,7 @@
         <v>0.98878827618050624</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -10993,7 +11082,7 @@
         <v>0.92687726098117218</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -11085,7 +11174,7 @@
         <v>0.90234394120401329</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -11177,7 +11266,7 @@
         <v>0.83299222013764374</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -11269,7 +11358,7 @@
         <v>0.92966413916345358</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -11361,7 +11450,7 @@
         <v>0.77454838157633321</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -11453,7 +11542,7 @@
         <v>0.80330006335949855</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -11545,7 +11634,7 @@
         <v>0.94692587816037954</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -11637,7 +11726,7 @@
         <v>0.91013446245337004</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -11729,7 +11818,7 @@
         <v>0.63320075123152653</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -11821,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -11913,7 +12002,7 @@
         <v>0.61345113339363899</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -12005,7 +12094,7 @@
         <v>0.88466344931644314</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -12097,7 +12186,7 @@
         <v>0.93749203869880948</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -12189,7 +12278,7 @@
         <v>0.99705662714627719</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -12281,7 +12370,7 @@
         <v>0.97451482206080675</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -12373,7 +12462,7 @@
         <v>0.88707516825904231</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -12465,7 +12554,7 @@
         <v>0.84961535358506846</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -12557,7 +12646,7 @@
         <v>0.87598775740082557</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -12649,7 +12738,7 @@
         <v>0.83583759830916171</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -12741,7 +12830,7 @@
         <v>0.86264606196599214</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -12833,7 +12922,7 @@
         <v>0.98143158962599342</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -12925,7 +13014,7 @@
         <v>0.86786200136129366</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -13017,7 +13106,7 @@
         <v>0.98354008959267014</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -13109,7 +13198,7 @@
         <v>0.92734834342911387</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -13201,7 +13290,7 @@
         <v>0.80602141268261784</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -13293,7 +13382,7 @@
         <v>0.9192442599569961</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -13385,7 +13474,7 @@
         <v>0.90633555657697884</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -13477,7 +13566,7 @@
         <v>0.97601776381411054</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -13569,7 +13658,7 @@
         <v>0.9832320349112843</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -13661,7 +13750,7 @@
         <v>0.79398942305143572</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -13753,7 +13842,7 @@
         <v>0.77486099924066709</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -13845,7 +13934,7 @@
         <v>0.83601412044662382</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -13937,7 +14026,7 @@
         <v>0.98317524697617498</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -14029,7 +14118,7 @@
         <v>0.98019664333644452</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -14121,7 +14210,7 @@
         <v>0.98810915698961244</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:38">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -14163,6 +14252,94 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>88.981186880701571</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38">
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F4:F49)</f>
+        <v>1.2114657803558027</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(L4:L49)</f>
+        <v>1.3491303590828989</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50">
+        <f>AVERAGE(R4:R49)</f>
+        <v>1.0774075789041671</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X50">
+        <f>AVERAGE(X4:X49)</f>
+        <v>0.95284779793636665</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50">
+        <f>AVERAGE(AD4:AD49)</f>
+        <v>1.0317364063723533</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50">
+        <f>AVERAGE(AJ4:AJ49)</f>
+        <v>1.0183803854712195</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H4:H50)</f>
+        <v>0.84285992037261992</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(N4:N50)</f>
+        <v>0.84441674916073695</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(T4:T50)</f>
+        <v>0.85259836129637723</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51">
+        <f>AVERAGE(Z4:Z50)</f>
+        <v>0.8754255916344833</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51">
+        <f>AVERAGE(AF4:AF50)</f>
+        <v>0.87296393305615227</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51">
+        <f>AVERAGE(AL4:AL50)</f>
+        <v>0.87325651893400869</v>
       </c>
     </row>
   </sheetData>
@@ -14188,18 +14365,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -14261,7 +14438,7 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -14349,7 +14526,7 @@
       </c>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -14449,7 +14626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -14547,7 +14724,7 @@
         <v>89.113109068128381</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -14645,7 +14822,7 @@
         <v>66.603075055656205</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -14737,7 +14914,7 @@
         <v>73.637029361155498</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -14829,7 +15006,7 @@
         <v>51.932354853461668</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -14921,7 +15098,7 @@
         <v>73.555768105877377</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -15013,7 +15190,7 @@
         <v>83.682682076902253</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -15105,7 +15282,7 @@
         <v>83.269860784071767</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -15197,7 +15374,7 @@
         <v>80.687174857595252</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -15289,7 +15466,7 @@
         <v>90.011106975717524</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -15381,7 +15558,7 @@
         <v>95.296592806254694</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -15473,7 +15650,7 @@
         <v>87.808609056228704</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -15565,7 +15742,7 @@
         <v>94.186407133144755</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -15657,7 +15834,7 @@
         <v>0.89596755230198721</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -15749,7 +15926,7 @@
         <v>95.454429087615409</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -15841,7 +16018,7 @@
         <v>75.004747348191373</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -15933,7 +16110,7 @@
         <v>83.531173631258795</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -16025,7 +16202,7 @@
         <v>97.512282072458035</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -16117,7 +16294,7 @@
         <v>88.205318553365387</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -16209,7 +16386,7 @@
         <v>87.431218064072681</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -16301,7 +16478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -16393,7 +16570,7 @@
         <v>74.537523069664104</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -16485,7 +16662,7 @@
         <v>90.396861550789041</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -16577,7 +16754,7 @@
         <v>85.526665173664327</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -16669,7 +16846,7 @@
         <v>96.109310569563746</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -16761,7 +16938,7 @@
         <v>96.237498873141845</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -16853,7 +17030,7 @@
         <v>87.913657040953638</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -16945,7 +17122,7 @@
         <v>87.781039008514128</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -17037,7 +17214,7 @@
         <v>73.982285640474061</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -17129,7 +17306,7 @@
         <v>93.213780108620966</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -17221,7 +17398,7 @@
         <v>90.250751970792933</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -17313,7 +17490,7 @@
         <v>94.62749392944508</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -17405,7 +17582,7 @@
         <v>94.587309646135978</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -17497,7 +17674,7 @@
         <v>97.029070237115235</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -17589,7 +17766,7 @@
         <v>86.440890148279394</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -17681,7 +17858,7 @@
         <v>85.446396318046737</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -17773,7 +17950,7 @@
         <v>95.48927635718141</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -17865,7 +18042,7 @@
         <v>95.324581114041081</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -17957,7 +18134,7 @@
         <v>99.823270880310019</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -18049,7 +18226,7 @@
         <v>99.438837905393754</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -18141,7 +18318,7 @@
         <v>87.7238258080897</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -18233,7 +18410,7 @@
         <v>82.313793072963421</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -18325,7 +18502,7 @@
         <v>91.716855355910369</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -18417,7 +18594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -18509,7 +18686,7 @@
         <v>94.938117154425143</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -18601,7 +18778,7 @@
         <v>99.189451032902554</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:38">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -18643,6 +18820,94 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>89.409748834813072</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38">
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F4:F49)</f>
+        <v>0.8182059551810239</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(L4:L49)</f>
+        <v>1.697497804674261</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50">
+        <f>AVERAGE(R4:R49)</f>
+        <v>0.51925348607879507</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X50">
+        <f>AVERAGE(X4:X49)</f>
+        <v>0.42970957598769233</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50">
+        <f>AVERAGE(AD4:AD49)</f>
+        <v>0.60150399152834411</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50">
+        <f>AVERAGE(AJ4:AJ49)</f>
+        <v>0.54789130184387047</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H4:H50)</f>
+        <v>83.490533560261142</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(N4:N50)</f>
+        <v>0.82488430104960941</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(T4:T50)</f>
+        <v>86.041344949455606</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51">
+        <f>AVERAGE(Z4:Z50)</f>
+        <v>88.457551668104273</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51">
+        <f>AVERAGE(AF4:AF50)</f>
+        <v>86.505065834368722</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51">
+        <f>AVERAGE(AL4:AL50)</f>
+        <v>86.174609964663929</v>
       </c>
     </row>
   </sheetData>
@@ -18668,18 +18933,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D57D433-CB94-4C35-BE52-A3A017F607FF}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -18741,7 +19006,7 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -18829,7 +19094,7 @@
       </c>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -18929,7 +19194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -19027,7 +19292,7 @@
         <v>0.66983887310260903</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -19125,7 +19390,7 @@
         <v>0.4870186857091679</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -19217,7 +19482,7 @@
         <v>0.60184388509037712</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -19309,7 +19574,7 @@
         <v>0.4456841154380447</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -19401,7 +19666,7 @@
         <v>0.81597623658907747</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -19493,7 +19758,7 @@
         <v>0.92396520717201391</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -19585,7 +19850,7 @@
         <v>0.64304753144572691</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -19677,7 +19942,7 @@
         <v>0.77907100813581942</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -19769,7 +20034,7 @@
         <v>0.69750963673496502</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -19861,7 +20126,7 @@
         <v>0.9391527362289146</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -19953,7 +20218,7 @@
         <v>0.8460138774231718</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -20045,7 +20310,7 @@
         <v>0.8866579528821823</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -20137,7 +20402,7 @@
         <v>0.87517439891336701</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -20229,7 +20494,7 @@
         <v>0.76187486363036194</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -20321,7 +20586,7 @@
         <v>0.82121659278636516</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -20413,7 +20678,7 @@
         <v>0.83084254740024954</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -20505,7 +20770,7 @@
         <v>0.83366539938264628</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -20597,7 +20862,7 @@
         <v>0.78953134856451956</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -20689,7 +20954,7 @@
         <v>0.78859480714478392</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -20781,7 +21046,7 @@
         <v>0.89011100084248262</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -20873,7 +21138,7 @@
         <v>0.61358230142314762</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -20965,7 +21230,7 @@
         <v>0.89096529430521465</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -21057,7 +21322,7 @@
         <v>0.93921411083606754</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -21149,7 +21414,7 @@
         <v>0.94120308963020971</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -21241,7 +21506,7 @@
         <v>0.84867085894152816</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -21333,7 +21598,7 @@
         <v>0.92840810133536533</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -21425,7 +21690,7 @@
         <v>0.77987118458942351</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -21517,7 +21782,7 @@
         <v>0.65852949309922315</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -21609,7 +21874,7 @@
         <v>0.94076170351603938</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -21701,7 +21966,7 @@
         <v>0.79471539324465446</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -21793,7 +22058,7 @@
         <v>0.92855121967697407</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -21885,7 +22150,7 @@
         <v>0.98145679378675754</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -21977,7 +22242,7 @@
         <v>0.95184243319707185</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -22069,7 +22334,7 @@
         <v>0.79526548577637957</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -22161,7 +22426,7 @@
         <v>0.83985385917337962</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -22253,7 +22518,7 @@
         <v>0.94433994315396286</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -22345,7 +22610,7 @@
         <v>0.84745068838124937</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -22437,7 +22702,7 @@
         <v>0.97104498844839215</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -22529,7 +22794,7 @@
         <v>0.98669886752070679</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -22621,7 +22886,7 @@
         <v>0.72865859170922642</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -22713,7 +22978,7 @@
         <v>0.77929561483874765</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -22805,7 +23070,7 @@
         <v>0.88340131757691032</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -22897,7 +23162,7 @@
         <v>0.99350754726063106</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -22989,7 +23254,7 @@
         <v>0.93321325196355398</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -23081,7 +23346,7 @@
         <v>0.98000907630044032</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:38">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -23123,6 +23388,94 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>84.985243048046371</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38">
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F4:F49)</f>
+        <v>1.2663806637808175</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(L4:L49)</f>
+        <v>1.4917371106163981</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50">
+        <f>AVERAGE(R4:R49)</f>
+        <v>1.4917371106163981</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X50">
+        <f>AVERAGE(X4:X49)</f>
+        <v>1.8622659413123261</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50">
+        <f>AVERAGE(AD4:AD49)</f>
+        <v>2.353702568425172</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50">
+        <f>AVERAGE(AJ4:AJ49)</f>
+        <v>1.5903102478778948</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H4:H50)</f>
+        <v>0.81459665252719493</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(N4:N50)</f>
+        <v>0.81068320920851311</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(T4:T50)</f>
+        <v>0.81068320920851311</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51">
+        <f>AVERAGE(Z4:Z50)</f>
+        <v>0.81422504541780683</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51">
+        <f>AVERAGE(AF4:AF50)</f>
+        <v>0.80769275799167406</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51">
+        <f>AVERAGE(AL4:AL50)</f>
+        <v>0.82682893142893576</v>
       </c>
     </row>
   </sheetData>
@@ -23148,18 +23501,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6518DF11-735B-439A-9EC3-1B9227BFC550}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -23221,7 +23574,7 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -23309,7 +23662,7 @@
       </c>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -23409,7 +23762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -23432,7 +23785,7 @@
         <v>0.43850015724684532</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -23455,7 +23808,7 @@
         <v>0.42041729585377019</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -23472,7 +23825,7 @@
         <v>0.33172888813303442</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -23489,7 +23842,7 @@
         <v>0.44436670008626561</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -23506,7 +23859,7 @@
         <v>0.60628410223479601</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -23523,7 +23876,7 @@
         <v>0.47549230061851439</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -23540,7 +23893,7 @@
         <v>0.41441096977507103</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -23557,7 +23910,7 @@
         <v>0.60955055605523678</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -23574,7 +23927,7 @@
         <v>0.57574476047479817</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -23591,7 +23944,7 @@
         <v>0.9142864652758389</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -23608,7 +23961,7 @@
         <v>0.4848066079465001</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -23625,7 +23978,7 @@
         <v>0.72418153302108534</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -23642,7 +23995,7 @@
         <v>0.5963053565766615</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -23659,7 +24012,7 @@
         <v>0.63041403319523615</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -23676,7 +24029,7 @@
         <v>0.60587440737790776</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -23693,7 +24046,7 @@
         <v>0.42629891653740121</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -23710,7 +24063,7 @@
         <v>0.81740832210543268</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -23727,7 +24080,7 @@
         <v>0.76864150585787394</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -23744,7 +24097,7 @@
         <v>0.64156093548896476</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -23761,7 +24114,7 @@
         <v>0.83515796767790584</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -23778,7 +24131,7 @@
         <v>0.59489502207629108</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -23795,7 +24148,7 @@
         <v>0.85926728953205633</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -23812,7 +24165,7 @@
         <v>0.86737478689247316</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -23829,7 +24182,7 @@
         <v>0.81160160617763688</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -23846,7 +24199,7 @@
         <v>0.65606098761906639</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -23863,7 +24216,7 @@
         <v>0.72075024957503575</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -23880,7 +24233,7 @@
         <v>0.96540636961607462</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -23897,7 +24250,7 @@
         <v>0.89750562150493296</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -23914,7 +24267,7 @@
         <v>0.40921961509524968</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -23931,7 +24284,7 @@
         <v>0.78229624046730684</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -23948,7 +24301,7 @@
         <v>0.88645131873673344</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -23965,7 +24318,7 @@
         <v>0.93227774261482144</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -23982,7 +24335,7 @@
         <v>0.9331561031845883</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -23999,7 +24352,7 @@
         <v>0.75086956998913101</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -24016,7 +24369,7 @@
         <v>0.57035359577832279</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -24033,7 +24386,7 @@
         <v>0.75245810602468954</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -24050,7 +24403,7 @@
         <v>0.69959308673367404</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -24067,7 +24420,7 @@
         <v>0.76325031293109569</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -24084,7 +24437,7 @@
         <v>0.93356369482211787</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -24101,7 +24454,7 @@
         <v>0.71907446943396514</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -24118,7 +24471,7 @@
         <v>0.64593291093524852</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -24135,7 +24488,7 @@
         <v>0.82431866066621029</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -24152,7 +24505,7 @@
         <v>0.96966432653218315</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -24169,7 +24522,7 @@
         <v>0.89819558733273586</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -24186,7 +24539,7 @@
         <v>0.77146238250386168</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:38">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -24227,6 +24580,94 @@
       </c>
       <c r="AI49" t="e">
         <f>AVERAGE(AI4:AI48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="4:38">
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F4:F49)</f>
+        <v>2.8040030971250927</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" t="e">
+        <f>AVERAGE(L4:L49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" t="e">
+        <f>AVERAGE(R4:R49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X50" t="e">
+        <f>AVERAGE(X4:X49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD50" t="e">
+        <f>AVERAGE(AD4:AD49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50" t="e">
+        <f>AVERAGE(AJ4:AJ49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="4:38">
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H4:H50)</f>
+        <v>0.69725403196254776</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" t="e">
+        <f>AVERAGE(N4:N50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51" t="e">
+        <f>AVERAGE(T4:T50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51" t="e">
+        <f>AVERAGE(Z4:Z50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF51" t="e">
+        <f>AVERAGE(AF4:AF50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51" t="e">
+        <f>AVERAGE(AL4:AL50)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Results/summary_deLDS_5_fold_eva.xlsx
+++ b/Results/summary_deLDS_5_fold_eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807CEC4-8AD3-4234-96D6-359C841071C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69223BB-1601-440A-BB3E-DBDDB6972DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
@@ -14643,7 +14643,7 @@
         <v>0.68059000686153015</v>
       </c>
       <c r="G4">
-        <v>81.505895379717813</v>
+        <v>81.505895379717799</v>
       </c>
       <c r="H4">
         <v>78.277808734107865</v>
